--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_VOC.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_VOC.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_VOC</t>
+  </si>
+  <si>
+    <t>02_taxi_VOC</t>
+  </si>
+  <si>
+    <t>03_van_VOC</t>
+  </si>
+  <si>
+    <t>04_bus_VOC</t>
+  </si>
+  <si>
+    <t>05_LightTruck_VOC</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_VOC</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_VOC</t>
+  </si>
+  <si>
+    <t>Total_VOC (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1290 +397,1393 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_VOC</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_VOC</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_VOC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_VOC</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_VOC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_VOC</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_VOC (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>32.13072485997328</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.01451790744997376</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>0.01567580267385619</v>
+      </c>
+      <c r="D2">
         <v>8.173062707904556</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>2.160354087167885</v>
+      </c>
+      <c r="F2">
         <v>1.895069967077745</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>64.7364296392454</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.3348671805906473</v>
       </c>
-      <c r="H2" t="n">
-        <v>107.2846722622416</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>109.4461842446334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>33.47119757853095</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.01781743187042234</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0.01923848509973259</v>
+      </c>
+      <c r="D3">
         <v>7.850441811539904</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>2.42221518864278</v>
+      </c>
+      <c r="F3">
         <v>1.765687680168822</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>57.40777722725534</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.2575901389158826</v>
       </c>
-      <c r="H3" t="n">
-        <v>100.7705118682813</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>103.1941481101534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>35.4412862709566</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.01715752698633262</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>0.01852594861455731</v>
+      </c>
+      <c r="D4">
         <v>7.957982110328123</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>2.22581936253661</v>
+      </c>
+      <c r="F4">
         <v>1.735244789131429</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>54.55774573370365</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.4379032361570004</v>
       </c>
-      <c r="H4" t="n">
-        <v>100.1473196672631</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>102.374507451428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>35.0960129949645</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.01550776477610833</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>0.0167446074016191</v>
+      </c>
+      <c r="D5">
         <v>6.667498524869504</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>2.42221518864278</v>
+      </c>
+      <c r="F5">
         <v>1.978787917430577</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>37.45755677239355</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.3348671805906473</v>
       </c>
-      <c r="H5" t="n">
-        <v>81.55023115502489</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>83.97368318629317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>37.59416669773107</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.01517781233406347</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>0.01638833915903146</v>
+      </c>
+      <c r="D6">
         <v>9.248465695786738</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>2.487680464011504</v>
+      </c>
+      <c r="F6">
         <v>1.82657346224361</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>45.19335654060527</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.3348671805906473</v>
       </c>
-      <c r="H6" t="n">
-        <v>94.21260738929139</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>96.70149838012786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>39.38146365580796</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.01583771721815318</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7">
+        <v>0.01710087564420674</v>
+      </c>
+      <c r="D7">
         <v>8.818304500633861</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>2.356749913274057</v>
+      </c>
+      <c r="F7">
         <v>1.773298402928172</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>38.67899884105859</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.3863852083738238</v>
       </c>
-      <c r="H7" t="n">
-        <v>89.05428832602057</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>91.41230139772067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>44.76366472274405</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.01187828791361489</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8">
+        <v>0.01282565673315506</v>
+      </c>
+      <c r="D8">
         <v>9.463546293363171</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>3.469659594542361</v>
+      </c>
+      <c r="F8">
         <v>1.697191175334687</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>22.80025194841347</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.4894212639401768</v>
       </c>
-      <c r="H8" t="n">
-        <v>79.22595369170917</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>82.69656065507108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>48.92725422735498</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.009568620819300886</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.01033177903504158</v>
+      </c>
+      <c r="D9">
         <v>8.173062707904556</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>4.909895652654286</v>
+      </c>
+      <c r="F9">
         <v>1.232937087014437</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>17.50733631753177</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>0.1545540833495296</v>
       </c>
-      <c r="H9" t="n">
-        <v>76.00471304397456</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>80.91537185484458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>49.69904155016096</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.01121838302952517</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>0.01211312024797978</v>
+      </c>
+      <c r="D10">
         <v>6.452417927293068</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>5.237222029497907</v>
+      </c>
+      <c r="F10">
         <v>0.6621328800633087</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>9.364389193098388</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.07727704167476479</v>
       </c>
-      <c r="H10" t="n">
-        <v>66.26647697532</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>71.50459374203638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>32.09010447456246</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.01748747942837748</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11">
+        <v>0.01888221685714495</v>
+      </c>
+      <c r="D11">
         <v>3.871450756375844</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>4.32070817433577</v>
+      </c>
+      <c r="F11">
         <v>0.304428910373935</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>6.921505055768375</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.103036055566353</v>
       </c>
-      <c r="H11" t="n">
-        <v>43.30801273207535</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>47.63011564383988</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>27.64217227207563</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.01946719408064662</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12">
+        <v>0.0210198263126708</v>
+      </c>
+      <c r="D12">
         <v>3.226208963646534</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>3.731520696017258</v>
+      </c>
+      <c r="F12">
         <v>0.365314692448722</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>6.10721034332504</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.07727704167476479</v>
       </c>
-      <c r="H12" t="n">
-        <v>37.43765050725133</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>41.17072383550061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>21.04135964281437</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.01088843058748032</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13">
+        <v>0.01175685200539214</v>
+      </c>
+      <c r="D13">
         <v>2.796047768493664</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>3.011402666961295</v>
+      </c>
+      <c r="F13">
         <v>0.2511538510584962</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>4.478620918438359</v>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>28.57807061139237</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>31.59034169977157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>15.37481587800238</v>
       </c>
-      <c r="C14" t="n">
-        <v>0.01154833547157003</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14">
+        <v>0.01246938849056742</v>
+      </c>
+      <c r="D14">
         <v>2.258346274552575</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>1.505701333480648</v>
+      </c>
+      <c r="F14">
         <v>0.2511538510584962</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>4.885768274660032</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14">
         <v>0.02575901389158826</v>
       </c>
-      <c r="H14" t="n">
-        <v>22.80739162763664</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>24.31401401413628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>9.627031342368738</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.002969571978403723</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15">
+        <v>0.003206414183288766</v>
+      </c>
+      <c r="D15">
         <v>0.967862689093961</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>1.3747707827432</v>
+      </c>
+      <c r="F15">
         <v>0.1369930096682707</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>6.921505055768375</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15">
         <v>0.02575901389158826</v>
       </c>
-      <c r="H15" t="n">
-        <v>17.68212068276934</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>19.05712830771742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>6.763294170904619</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.006929001282942019</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16">
+        <v>0.007481633094340453</v>
+      </c>
+      <c r="D16">
         <v>0.6452417927293075</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>0.6546527536872384</v>
+      </c>
+      <c r="F16">
         <v>0.2815967420958898</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>4.478620918438359</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16">
         <v>0.05151802778317652</v>
       </c>
-      <c r="H16" t="n">
-        <v>12.22720065323429</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>12.88240603873293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>4.36669143166514</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.0102285257033906</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17">
+        <v>0.01104431552021686</v>
+      </c>
+      <c r="D17">
         <v>0.2150805975764357</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>0.2054895145024062</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>7.328652411990041</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>12.12614248143741</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>12.12695827125424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2.823116786053279</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.006929001282942019</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18">
+        <v>0.007481633094340453</v>
+      </c>
+      <c r="D18">
         <v>0.7527820915175251</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.1369930096682707</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>9.364389193098388</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>13.08421008162041</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>13.0847627134318</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>3.168390062045406</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.005939143956807446</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19">
+        <v>0.006412828366577532</v>
+      </c>
+      <c r="D19">
         <v>0.6452417927293075</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.5237222029497903</v>
+      </c>
+      <c r="F19">
         <v>0.1750466234650126</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>8.957241836876719</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>12.95185945907325</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>13.47605534643281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>5.666543764811978</v>
       </c>
-      <c r="C20" t="n">
-        <v>0.003959429304538296</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20">
+        <v>0.004275218911051686</v>
+      </c>
+      <c r="D20">
         <v>1.50556418303505</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>0.2618611014748952</v>
+      </c>
+      <c r="F20">
         <v>0.3500932469300252</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>11.40012597420673</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>18.92628659828832</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>19.18846348936973</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>13.62813930533633</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.002969571978403723</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21">
+        <v>0.003206414183288766</v>
+      </c>
+      <c r="D21">
         <v>3.226208963646534</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>2.42221518864278</v>
+      </c>
+      <c r="F21">
         <v>0.6240792662665666</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>16.69304160508844</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.07727704167476479</v>
       </c>
-      <c r="H21" t="n">
-        <v>34.25171575399103</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>36.67416778483869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>25.89549569940957</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.004289381746583154</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22">
+        <v>0.004631487153639328</v>
+      </c>
+      <c r="D22">
         <v>6.882579122445943</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>6.481062261503656</v>
+      </c>
+      <c r="F22">
         <v>1.073111909068121</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>29.31460964796016</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.2575901389158826</v>
       </c>
-      <c r="H22" t="n">
-        <v>63.42767589954627</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>69.90908026645698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>41.67651543152033</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.004619334188628014</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23">
+        <v>0.004987755396226968</v>
+      </c>
+      <c r="D23">
         <v>5.377014939410893</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>6.415596986134927</v>
+      </c>
+      <c r="F23">
         <v>1.248158532533133</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>37.0504094161719</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.2318311250242943</v>
       </c>
-      <c r="H23" t="n">
-        <v>85.58854877884919</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>92.00451418619171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>51.16137542495112</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.009568620819300886</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24">
+        <v>0.01033177903504158</v>
+      </c>
+      <c r="D24">
         <v>7.850441811539904</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>3.92791652212343</v>
+      </c>
+      <c r="F24">
         <v>1.529755274629023</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>45.19335654060527</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.5151802778317651</v>
       </c>
-      <c r="H24" t="n">
-        <v>106.2596779503764</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>110.1883576307155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>37.20827303632808</v>
       </c>
-      <c r="C25" t="n">
-        <v>0.01682757454428776</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25">
+        <v>0.01816968037196966</v>
+      </c>
+      <c r="D25">
         <v>10.96911047639822</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>3.92791652212343</v>
+      </c>
+      <c r="F25">
         <v>1.720023343612733</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>60.25780872080701</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.721252388964471</v>
       </c>
-      <c r="H25" t="n">
-        <v>110.8932955406548</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>114.8225541686059</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>31.48079869339986</v>
       </c>
-      <c r="C26" t="n">
-        <v>0.01121838302952517</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26">
+        <v>0.01211312024797978</v>
+      </c>
+      <c r="D26">
         <v>11.72189256791575</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>2.094888811799161</v>
+      </c>
+      <c r="F26">
         <v>1.849405630521655</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>70.43649262634879</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.3606261944822355</v>
       </c>
-      <c r="H26" t="n">
-        <v>115.8604340956978</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>117.9562176447154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>32.8009612192521</v>
       </c>
-      <c r="C27" t="n">
-        <v>0.01385800256588404</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27">
+        <v>0.01496326618868091</v>
+      </c>
+      <c r="D27">
         <v>11.29173137276288</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>2.356749913274057</v>
+      </c>
+      <c r="F27">
         <v>1.720023343612733</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>62.70069285813705</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.2833491528074709</v>
       </c>
-      <c r="H27" t="n">
-        <v>108.8106159491381</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>111.168471126035</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>34.73042952626694</v>
       </c>
-      <c r="C28" t="n">
-        <v>0.01319809768179432</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28">
+        <v>0.01425072970350562</v>
+      </c>
+      <c r="D28">
         <v>11.50681197033931</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>2.160354087167885</v>
+      </c>
+      <c r="F28">
         <v>1.68958045257534</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>59.44351400836369</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.4894212639401768</v>
       </c>
-      <c r="H28" t="n">
-        <v>107.8729553191672</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>110.0343620383568</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>34.38515625027481</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.01187828791361489</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29">
+        <v>0.01282565673315506</v>
+      </c>
+      <c r="D29">
         <v>9.571086592151397</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>2.356749913274057</v>
+      </c>
+      <c r="F29">
         <v>1.925512858115139</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>40.71473562216691</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.3606261944822355</v>
       </c>
-      <c r="H29" t="n">
-        <v>86.96899580510411</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>89.32669308719771</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>36.84268956763056</v>
       </c>
-      <c r="C30" t="n">
-        <v>0.01154833547157003</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30">
+        <v>0.01246938849056742</v>
+      </c>
+      <c r="D30">
         <v>13.33499704973901</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>2.42221518864278</v>
+      </c>
+      <c r="F30">
         <v>1.780909125687519</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>49.26483010282195</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.3606261944822355</v>
       </c>
-      <c r="H30" t="n">
-        <v>101.5956003758329</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>104.0187366174946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>38.5893661402966</v>
       </c>
-      <c r="C31" t="n">
-        <v>0.01220824035565975</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31">
+        <v>0.0131819249757427</v>
+      </c>
+      <c r="D31">
         <v>12.6897552570097</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>2.291284637905332</v>
+      </c>
+      <c r="F31">
         <v>1.727634066372082</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>42.34332504705361</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.4121442222654122</v>
       </c>
-      <c r="H31" t="n">
-        <v>95.77443297335309</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>98.0666912958785</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>43.87001624370563</v>
       </c>
-      <c r="C32" t="n">
-        <v>0.009238668377256029</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32">
+        <v>0.009975510792453936</v>
+      </c>
+      <c r="D32">
         <v>13.65761794610367</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>3.338729043804914</v>
+      </c>
+      <c r="F32">
         <v>1.651526838778597</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>24.83598872952182</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.5409392917233534</v>
       </c>
-      <c r="H32" t="n">
-        <v>84.56532771821033</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>87.90479360443042</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>47.9523649774949</v>
       </c>
-      <c r="C33" t="n">
-        <v>0.007258953724986878</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33">
+        <v>0.007837901336928093</v>
+      </c>
+      <c r="D33">
         <v>11.72189256791575</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>4.778965101916838</v>
+      </c>
+      <c r="F33">
         <v>1.202494195977043</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>19.13592574241845</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>0.1803130972411177</v>
       </c>
-      <c r="H33" t="n">
-        <v>80.20024953477224</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>84.97979358430101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>48.70384210759538</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.008578763493166308</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34">
+        <v>0.009262974307278656</v>
+      </c>
+      <c r="D34">
         <v>9.248465695786738</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>5.106291478760456</v>
+      </c>
+      <c r="F34">
         <v>0.6469114345446115</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>10.17868390554173</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.07727704167476479</v>
       </c>
-      <c r="H34" t="n">
-        <v>68.86375894863639</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>73.97073463821094</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>31.44017830798903</v>
       </c>
-      <c r="C35" t="n">
-        <v>0.01352805012383918</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35">
+        <v>0.01460699794609326</v>
+      </c>
+      <c r="D35">
         <v>5.592095536987328</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>4.189777623598323</v>
+      </c>
+      <c r="F35">
         <v>0.2968181876145867</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>7.735799768211717</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.103036055566353</v>
       </c>
-      <c r="H35" t="n">
-        <v>45.18145590649285</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>49.37231247791343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>27.0937970690293</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.01484785989201861</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36">
+        <v>0.01603207091644383</v>
+      </c>
+      <c r="D36">
         <v>4.624232847893369</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>3.60059014527981</v>
+      </c>
+      <c r="F36">
         <v>0.3577039696893737</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>6.514357699546706</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.07727704167476479</v>
       </c>
-      <c r="H36" t="n">
-        <v>38.68221648772553</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>42.28399084402977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>20.61484559600056</v>
       </c>
-      <c r="C37" t="n">
-        <v>0.008248811051121453</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37">
+        <v>0.008906706064691015</v>
+      </c>
+      <c r="D37">
         <v>3.978991055164061</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>2.945937391592572</v>
+      </c>
+      <c r="F37">
         <v>0.243543128299148</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>4.885768274660032</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>29.73139686517492</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>32.67799215178106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>15.0701629874211</v>
       </c>
-      <c r="C38" t="n">
-        <v>0.008908715935211168</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38">
+        <v>0.009619242549866295</v>
+      </c>
+      <c r="D38">
         <v>3.226208963646534</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>1.440236058111923</v>
+      </c>
+      <c r="F38">
         <v>0.243543128299148</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>5.292915630881701</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38">
         <v>0.02575901389158826</v>
       </c>
-      <c r="H38" t="n">
-        <v>23.86749844007528</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>25.30844502480186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>9.423929415314539</v>
       </c>
-      <c r="C39" t="n">
-        <v>0.002309667094314007</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39">
+        <v>0.002493877698113484</v>
+      </c>
+      <c r="D39">
         <v>1.398023884246832</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>1.309305507374477</v>
+      </c>
+      <c r="F39">
         <v>0.1369930096682707</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>7.735799768211717</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>0.02575901389158826</v>
       </c>
-      <c r="H39" t="n">
-        <v>18.72281475842726</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>20.03230447640554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>6.621122821966682</v>
       </c>
-      <c r="C40" t="n">
-        <v>0.005279239072717729</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40">
+        <v>0.005700291881402249</v>
+      </c>
+      <c r="D40">
         <v>0.967862689093961</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>0.6546527536872384</v>
+      </c>
+      <c r="F40">
         <v>0.2739860193365415</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>4.885768274660032</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40">
         <v>0.05151802778317652</v>
       </c>
-      <c r="H40" t="n">
-        <v>12.80553707191311</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>13.46061087840903</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>4.285450660843467</v>
       </c>
-      <c r="C41" t="n">
-        <v>0.007918858609076592</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41">
+        <v>0.008550437822103372</v>
+      </c>
+      <c r="D41">
         <v>0.3226208963646537</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.1978787917430577</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>8.142947124433382</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>12.95681633199364</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>12.95744791120666</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>2.76218620793702</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.005279239072717729</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42">
+        <v>0.005700291881402249</v>
+      </c>
+      <c r="D42">
         <v>1.075402987882179</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>0.1369930096682707</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>10.17868390554173</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>14.15854535010192</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>14.1589664029106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>3.107459483929148</v>
       </c>
-      <c r="C43" t="n">
-        <v>0.004619334188628014</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43">
+        <v>0.004987755396226968</v>
+      </c>
+      <c r="D43">
         <v>0.967862689093961</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.5237222029497903</v>
+      </c>
+      <c r="F43">
         <v>0.1674359007056643</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>9.771536549320064</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>14.01891395723747</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>14.54300458139485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>5.54468260857946</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.002969571978403723</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44">
+        <v>0.003206414183288766</v>
+      </c>
+      <c r="D44">
         <v>2.150805975764358</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>0.2618611014748952</v>
+      </c>
+      <c r="F44">
         <v>0.3424825241706768</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>12.62156804287175</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>20.66250872336465</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>20.92460666704443</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>13.34379660746046</v>
       </c>
-      <c r="C45" t="n">
-        <v>0.002309667094314007</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45">
+        <v>0.002493877698113484</v>
+      </c>
+      <c r="D45">
         <v>4.624232847893369</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>2.356749913274057</v>
+      </c>
+      <c r="F45">
         <v>0.6088578207478701</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>18.32163102997511</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.07727704167476479</v>
       </c>
-      <c r="H45" t="n">
-        <v>36.97810501484589</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>39.33503913872374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>25.36743068906867</v>
       </c>
-      <c r="C46" t="n">
-        <v>0.003299524420448581</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46">
+        <v>0.003562682425876405</v>
+      </c>
+      <c r="D46">
         <v>9.893707488516045</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>6.284666435397486</v>
+      </c>
+      <c r="F46">
         <v>1.042669018030727</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>31.75749378529019</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.2833491528074709</v>
       </c>
-      <c r="H46" t="n">
-        <v>68.34794965813356</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>74.63287925153647</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>40.84379753059815</v>
       </c>
-      <c r="C47" t="n">
-        <v>0.003629476862493439</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47">
+        <v>0.003918950668464046</v>
+      </c>
+      <c r="D47">
         <v>7.742901512751688</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>6.21920116002876</v>
+      </c>
+      <c r="F47">
         <v>1.21771564149574</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>40.30758826594521</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.2575901389158826</v>
       </c>
-      <c r="H47" t="n">
-        <v>90.37322256656917</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>96.59271320040388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>50.12555559697473</v>
       </c>
-      <c r="C48" t="n">
-        <v>0.007258953724986878</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48">
+        <v>0.007837901336928093</v>
+      </c>
+      <c r="D48">
         <v>11.29173137276288</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>3.796985971385981</v>
+      </c>
+      <c r="F48">
         <v>1.491701660832281</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>49.26483010282195</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.5666983056149417</v>
       </c>
-      <c r="H48" t="n">
-        <v>112.7477759927318</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>116.5453409117297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>36.45679590622758</v>
       </c>
-      <c r="C49" t="n">
-        <v>0.01286814523974946</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49">
+        <v>0.01389446146091798</v>
+      </c>
+      <c r="D49">
         <v>15.80842392186802</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>3.796985971385981</v>
+      </c>
+      <c r="F49">
         <v>1.674359007056643</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>65.55072435168876</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.7985294306392361</v>
       </c>
-      <c r="H49" t="n">
-        <v>120.30170076272</v>
+      <c r="I49">
+        <v>124.0997130503271</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_VOC.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>32.13072485997328</v>
+        <v>98.83557570995583</v>
       </c>
       <c r="C2">
-        <v>0.01567580267385619</v>
+        <v>0.04821948427053101</v>
       </c>
       <c r="D2">
-        <v>8.173062707904556</v>
+        <v>25.14071380492315</v>
       </c>
       <c r="E2">
-        <v>2.160354087167885</v>
+        <v>6.645347743417568</v>
       </c>
       <c r="F2">
-        <v>1.895069967077745</v>
+        <v>5.829321685801886</v>
       </c>
       <c r="G2">
-        <v>64.7364296392454</v>
+        <v>199.1322113237625</v>
       </c>
       <c r="H2">
-        <v>0.3348671805906473</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I2">
-        <v>109.4461842446334</v>
+        <v>336.6614564787392</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>33.47119757853095</v>
+        <v>102.9589309544926</v>
       </c>
       <c r="C3">
-        <v>0.01923848509973259</v>
+        <v>0.05917845796837898</v>
       </c>
       <c r="D3">
-        <v>7.850441811539904</v>
+        <v>24.1483172073604</v>
       </c>
       <c r="E3">
-        <v>2.42221518864278</v>
+        <v>7.450844439589391</v>
       </c>
       <c r="F3">
-        <v>1.765687680168822</v>
+        <v>5.431335867895734</v>
       </c>
       <c r="G3">
-        <v>57.40777722725534</v>
+        <v>176.5889421172988</v>
       </c>
       <c r="H3">
-        <v>0.2575901389158826</v>
+        <v>0.7923590204674864</v>
       </c>
       <c r="I3">
-        <v>103.1941481101534</v>
+        <v>317.4299080650727</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>35.4412862709566</v>
+        <v>109.0190136623723</v>
       </c>
       <c r="C4">
-        <v>0.01852594861455731</v>
+        <v>0.05698666322880936</v>
       </c>
       <c r="D4">
-        <v>7.957982110328123</v>
+        <v>24.47911607321463</v>
       </c>
       <c r="E4">
-        <v>2.22581936253661</v>
+        <v>6.84672191746052</v>
       </c>
       <c r="F4">
-        <v>1.735244789131429</v>
+        <v>5.337692146035462</v>
       </c>
       <c r="G4">
-        <v>54.55774573370365</v>
+        <v>167.8221152036739</v>
       </c>
       <c r="H4">
-        <v>0.4379032361570004</v>
+        <v>1.347010334794728</v>
       </c>
       <c r="I4">
-        <v>102.374507451428</v>
+        <v>314.9086560007804</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>35.0960129949645</v>
+        <v>107.9569373115067</v>
       </c>
       <c r="C5">
-        <v>0.0167446074016191</v>
+        <v>0.0515071763798854</v>
       </c>
       <c r="D5">
-        <v>6.667498524869504</v>
+        <v>20.50952968296362</v>
       </c>
       <c r="E5">
-        <v>2.42221518864278</v>
+        <v>7.450844439589391</v>
       </c>
       <c r="F5">
-        <v>1.978787917430577</v>
+        <v>6.086841920917633</v>
       </c>
       <c r="G5">
-        <v>37.45755677239355</v>
+        <v>115.2211537219255</v>
       </c>
       <c r="H5">
-        <v>0.3348671805906473</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I5">
-        <v>83.97368318629317</v>
+        <v>258.3068809798905</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>37.59416669773107</v>
+        <v>115.6413720854161</v>
       </c>
       <c r="C6">
-        <v>0.01638833915903146</v>
+        <v>0.05041127901010059</v>
       </c>
       <c r="D6">
-        <v>9.248465695786738</v>
+        <v>28.44870246346566</v>
       </c>
       <c r="E6">
-        <v>2.487680464011504</v>
+        <v>7.652218613632345</v>
       </c>
       <c r="F6">
-        <v>1.82657346224361</v>
+        <v>5.618623311616276</v>
       </c>
       <c r="G6">
-        <v>45.19335654060527</v>
+        <v>139.0168267731926</v>
       </c>
       <c r="H6">
-        <v>0.3348671805906473</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I6">
-        <v>96.70149838012786</v>
+        <v>297.4582212529409</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>39.38146365580796</v>
+        <v>121.1391790781318</v>
       </c>
       <c r="C7">
-        <v>0.01710087564420674</v>
+        <v>0.05260307374967019</v>
       </c>
       <c r="D7">
-        <v>8.818304500633861</v>
+        <v>27.12550700004865</v>
       </c>
       <c r="E7">
-        <v>2.356749913274057</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F7">
-        <v>1.773298402928172</v>
+        <v>5.454746798360802</v>
       </c>
       <c r="G7">
-        <v>38.67899884105859</v>
+        <v>118.978365256336</v>
       </c>
       <c r="H7">
-        <v>0.3863852083738238</v>
+        <v>1.18853853070123</v>
       </c>
       <c r="I7">
-        <v>91.41230139772067</v>
+        <v>281.1884100028745</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>44.76366472274405</v>
+        <v>137.6950751357411</v>
       </c>
       <c r="C8">
-        <v>0.01282565673315506</v>
+        <v>0.03945230531225264</v>
       </c>
       <c r="D8">
-        <v>9.463546293363171</v>
+        <v>29.11030019517416</v>
       </c>
       <c r="E8">
-        <v>3.469659594542361</v>
+        <v>10.67283122427669</v>
       </c>
       <c r="F8">
-        <v>1.697191175334687</v>
+        <v>5.220637493710123</v>
       </c>
       <c r="G8">
-        <v>22.80025194841347</v>
+        <v>70.13461530899808</v>
       </c>
       <c r="H8">
-        <v>0.4894212639401768</v>
+        <v>1.505482138888225</v>
       </c>
       <c r="I8">
-        <v>82.69656065507108</v>
+        <v>254.3783938021007</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>48.92725422735498</v>
+        <v>150.5024664255902</v>
       </c>
       <c r="C9">
-        <v>0.01033177903504158</v>
+        <v>0.03178102372375907</v>
       </c>
       <c r="D9">
-        <v>8.173062707904556</v>
+        <v>25.14071380492315</v>
       </c>
       <c r="E9">
-        <v>4.909895652654286</v>
+        <v>15.10306305322174</v>
       </c>
       <c r="F9">
-        <v>1.232937087014437</v>
+        <v>3.792570735340986</v>
       </c>
       <c r="G9">
-        <v>17.50733631753177</v>
+        <v>53.85336532655212</v>
       </c>
       <c r="H9">
-        <v>0.1545540833495296</v>
+        <v>0.4754154122804919</v>
       </c>
       <c r="I9">
-        <v>80.91537185484458</v>
+        <v>248.8993757816324</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>49.69904155016096</v>
+        <v>152.8765194451719</v>
       </c>
       <c r="C10">
-        <v>0.01211312024797978</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D10">
-        <v>6.452417927293068</v>
+        <v>19.84793195125512</v>
       </c>
       <c r="E10">
-        <v>5.237222029497907</v>
+        <v>16.10993392343652</v>
       </c>
       <c r="F10">
-        <v>0.6621328800633087</v>
+        <v>2.036750950460901</v>
       </c>
       <c r="G10">
-        <v>9.364389193098388</v>
+        <v>28.80528843048137</v>
       </c>
       <c r="H10">
-        <v>0.07727704167476479</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I10">
-        <v>71.50459374203638</v>
+        <v>219.9513929175188</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>32.09010447456246</v>
+        <v>98.7106255510305</v>
       </c>
       <c r="C11">
-        <v>0.01888221685714495</v>
+        <v>0.05808256059859417</v>
       </c>
       <c r="D11">
-        <v>3.871450756375844</v>
+        <v>11.90875917075307</v>
       </c>
       <c r="E11">
-        <v>4.32070817433577</v>
+        <v>13.29069548683514</v>
       </c>
       <c r="F11">
-        <v>0.304428910373935</v>
+        <v>0.9364372186027128</v>
       </c>
       <c r="G11">
-        <v>6.921505055768375</v>
+        <v>21.29086536166013</v>
       </c>
       <c r="H11">
-        <v>0.103036055566353</v>
+        <v>0.3169436081869947</v>
       </c>
       <c r="I11">
-        <v>47.63011564383988</v>
+        <v>146.5124089576671</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>27.64217227207563</v>
+        <v>85.02858314870407</v>
       </c>
       <c r="C12">
-        <v>0.0210198263126708</v>
+        <v>0.06465794481730294</v>
       </c>
       <c r="D12">
-        <v>3.226208963646534</v>
+        <v>9.923965975627558</v>
       </c>
       <c r="E12">
-        <v>3.731520696017258</v>
+        <v>11.47832792044852</v>
       </c>
       <c r="F12">
-        <v>0.365314692448722</v>
+        <v>1.123724662323255</v>
       </c>
       <c r="G12">
-        <v>6.10721034332504</v>
+        <v>18.78605767205307</v>
       </c>
       <c r="H12">
-        <v>0.07727704167476479</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I12">
-        <v>41.17072383550061</v>
+        <v>126.643025030114</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>21.04135964281437</v>
+        <v>64.72418232333396</v>
       </c>
       <c r="C13">
-        <v>0.01175685200539214</v>
+        <v>0.03616461320289825</v>
       </c>
       <c r="D13">
-        <v>2.796047768493664</v>
+        <v>8.600770512210548</v>
       </c>
       <c r="E13">
-        <v>3.011402666961295</v>
+        <v>9.263212005976001</v>
       </c>
       <c r="F13">
-        <v>0.2511538510584962</v>
+        <v>0.772560705347238</v>
       </c>
       <c r="G13">
-        <v>4.478620918438359</v>
+        <v>13.77644229283892</v>
       </c>
       <c r="I13">
-        <v>31.59034169977157</v>
+        <v>97.17333245290956</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>15.37481587800238</v>
+        <v>47.29363515324688</v>
       </c>
       <c r="C14">
-        <v>0.01246938849056742</v>
+        <v>0.03835640794246784</v>
       </c>
       <c r="D14">
-        <v>2.258346274552575</v>
+        <v>6.946776182939291</v>
       </c>
       <c r="E14">
-        <v>1.505701333480648</v>
+        <v>4.631606002988001</v>
       </c>
       <c r="F14">
-        <v>0.2511538510584962</v>
+        <v>0.772560705347238</v>
       </c>
       <c r="G14">
-        <v>4.885768274660032</v>
+        <v>15.02884613764245</v>
       </c>
       <c r="H14">
-        <v>0.02575901389158826</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I14">
-        <v>24.31401401413628</v>
+        <v>74.79101649215308</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>9.627031342368738</v>
+        <v>29.61318766530917</v>
       </c>
       <c r="C15">
-        <v>0.003206414183288766</v>
+        <v>0.00986307632806316</v>
       </c>
       <c r="D15">
-        <v>0.967862689093961</v>
+        <v>2.977189792688268</v>
       </c>
       <c r="E15">
-        <v>1.3747707827432</v>
+        <v>4.228857654902087</v>
       </c>
       <c r="F15">
-        <v>0.1369930096682707</v>
+        <v>0.4213967483712208</v>
       </c>
       <c r="G15">
-        <v>6.921505055768375</v>
+        <v>21.29086536166013</v>
       </c>
       <c r="H15">
-        <v>0.02575901389158826</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I15">
-        <v>19.05712830771742</v>
+        <v>58.62059620130569</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>6.763294170904619</v>
+        <v>20.80420146107161</v>
       </c>
       <c r="C16">
-        <v>0.007481633094340453</v>
+        <v>0.02301384476548071</v>
       </c>
       <c r="D16">
-        <v>0.6452417927293075</v>
+        <v>1.984793195125512</v>
       </c>
       <c r="E16">
-        <v>0.6546527536872384</v>
+        <v>2.013741740429565</v>
       </c>
       <c r="F16">
-        <v>0.2815967420958898</v>
+        <v>0.8662044272075092</v>
       </c>
       <c r="G16">
-        <v>4.478620918438359</v>
+        <v>13.77644229283892</v>
       </c>
       <c r="H16">
-        <v>0.05151802778317652</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I16">
-        <v>12.88240603873293</v>
+        <v>39.62686876553209</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>4.36669143166514</v>
+        <v>13.43214208447566</v>
       </c>
       <c r="C17">
-        <v>0.01104431552021686</v>
+        <v>0.03397281846332866</v>
       </c>
       <c r="D17">
-        <v>0.2150805975764357</v>
+        <v>0.6615977317085036</v>
       </c>
       <c r="F17">
-        <v>0.2054895145024062</v>
+        <v>0.6320951225568313</v>
       </c>
       <c r="G17">
-        <v>7.328652411990041</v>
+        <v>22.54326920646368</v>
       </c>
       <c r="I17">
-        <v>12.12695827125424</v>
+        <v>37.303076963668</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.823116786053279</v>
+        <v>8.684036045312174</v>
       </c>
       <c r="C18">
-        <v>0.007481633094340453</v>
+        <v>0.02301384476548071</v>
       </c>
       <c r="D18">
-        <v>0.7527820915175251</v>
+        <v>2.315592060979764</v>
       </c>
       <c r="F18">
-        <v>0.1369930096682707</v>
+        <v>0.4213967483712208</v>
       </c>
       <c r="G18">
-        <v>9.364389193098388</v>
+        <v>28.80528843048137</v>
       </c>
       <c r="I18">
-        <v>13.0847627134318</v>
+        <v>40.24932712991001</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>3.168390062045406</v>
+        <v>9.746112396177693</v>
       </c>
       <c r="C19">
-        <v>0.006412828366577532</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D19">
-        <v>0.6452417927293075</v>
+        <v>1.984793195125512</v>
       </c>
       <c r="E19">
-        <v>0.5237222029497903</v>
+        <v>1.610993392343652</v>
       </c>
       <c r="F19">
-        <v>0.1750466234650126</v>
+        <v>0.5384514006965598</v>
       </c>
       <c r="G19">
-        <v>8.957241836876719</v>
+        <v>27.55288458567784</v>
       </c>
       <c r="I19">
-        <v>13.47605534643281</v>
+        <v>41.45296112267738</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>5.666543764811978</v>
+        <v>17.43054717008702</v>
       </c>
       <c r="C20">
-        <v>0.004275218911051686</v>
+        <v>0.01315076843741755</v>
       </c>
       <c r="D20">
-        <v>1.50556418303505</v>
+        <v>4.631184121959529</v>
       </c>
       <c r="E20">
-        <v>0.2618611014748952</v>
+        <v>0.8054966961718261</v>
       </c>
       <c r="F20">
-        <v>0.3500932469300252</v>
+        <v>1.07690280139312</v>
       </c>
       <c r="G20">
-        <v>11.40012597420673</v>
+        <v>35.06730765449904</v>
       </c>
       <c r="I20">
-        <v>19.18846348936973</v>
+        <v>59.02458921254795</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>13.62813930533633</v>
+        <v>41.92077831945662</v>
       </c>
       <c r="C21">
-        <v>0.003206414183288766</v>
+        <v>0.00986307632806316</v>
       </c>
       <c r="D21">
-        <v>3.226208963646534</v>
+        <v>9.923965975627558</v>
       </c>
       <c r="E21">
-        <v>2.42221518864278</v>
+        <v>7.450844439589391</v>
       </c>
       <c r="F21">
-        <v>0.6240792662665666</v>
+        <v>1.919696298135561</v>
       </c>
       <c r="G21">
-        <v>16.69304160508844</v>
+        <v>51.34855763694505</v>
       </c>
       <c r="H21">
-        <v>0.07727704167476479</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I21">
-        <v>36.67416778483869</v>
+        <v>112.8114134522225</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>25.89549569940957</v>
+        <v>79.65572631491384</v>
       </c>
       <c r="C22">
-        <v>0.004631487153639328</v>
+        <v>0.01424666580720234</v>
       </c>
       <c r="D22">
-        <v>6.882579122445943</v>
+        <v>21.17112741467211</v>
       </c>
       <c r="E22">
-        <v>6.481062261503656</v>
+        <v>19.93604323025268</v>
       </c>
       <c r="F22">
-        <v>1.073111909068121</v>
+        <v>3.300941195574563</v>
       </c>
       <c r="G22">
-        <v>29.31460964796016</v>
+        <v>90.17307682585471</v>
       </c>
       <c r="H22">
-        <v>0.2575901389158826</v>
+        <v>0.7923590204674864</v>
       </c>
       <c r="I22">
-        <v>69.90908026645698</v>
+        <v>215.0435206675426</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>41.67651543152033</v>
+        <v>128.1988630574143</v>
       </c>
       <c r="C23">
-        <v>0.004987755396226968</v>
+        <v>0.01534256317698714</v>
       </c>
       <c r="D23">
-        <v>5.377014939410893</v>
+        <v>16.53994329271261</v>
       </c>
       <c r="E23">
-        <v>6.415596986134927</v>
+        <v>19.73466905620973</v>
       </c>
       <c r="F23">
-        <v>1.248158532533133</v>
+        <v>3.839392596271122</v>
       </c>
       <c r="G23">
-        <v>37.0504094161719</v>
+        <v>113.9687498771219</v>
       </c>
       <c r="H23">
-        <v>0.2318311250242943</v>
+        <v>0.7131231184207378</v>
       </c>
       <c r="I23">
-        <v>92.00451418619171</v>
+        <v>283.0100835613274</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>51.16137542495112</v>
+        <v>157.3747251664847</v>
       </c>
       <c r="C24">
-        <v>0.01033177903504158</v>
+        <v>0.03178102372375907</v>
       </c>
       <c r="D24">
-        <v>7.850441811539904</v>
+        <v>24.1483172073604</v>
       </c>
       <c r="E24">
-        <v>3.92791652212343</v>
+        <v>12.08245044257739</v>
       </c>
       <c r="F24">
-        <v>1.529755274629023</v>
+        <v>4.705597023478632</v>
       </c>
       <c r="G24">
-        <v>45.19335654060527</v>
+        <v>139.0168267731926</v>
       </c>
       <c r="H24">
-        <v>0.5151802778317651</v>
+        <v>1.584718040934973</v>
       </c>
       <c r="I24">
-        <v>110.1883576307155</v>
+        <v>338.9444156777525</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>37.20827303632808</v>
+        <v>114.4543455756252</v>
       </c>
       <c r="C25">
-        <v>0.01816968037196966</v>
+        <v>0.05589076585902457</v>
       </c>
       <c r="D25">
-        <v>10.96911047639822</v>
+        <v>33.74148431713368</v>
       </c>
       <c r="E25">
-        <v>3.92791652212343</v>
+        <v>12.08245044257739</v>
       </c>
       <c r="F25">
-        <v>1.720023343612733</v>
+        <v>5.290870285105327</v>
       </c>
       <c r="G25">
-        <v>60.25780872080701</v>
+        <v>185.3557690309236</v>
       </c>
       <c r="H25">
-        <v>0.721252388964471</v>
+        <v>2.218605257308963</v>
       </c>
       <c r="I25">
-        <v>114.8225541686059</v>
+        <v>353.1994156745332</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>31.48079869339986</v>
+        <v>96.83637316715014</v>
       </c>
       <c r="C26">
-        <v>0.01211312024797978</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D26">
-        <v>11.72189256791575</v>
+        <v>36.05707637811346</v>
       </c>
       <c r="E26">
-        <v>2.094888811799161</v>
+        <v>6.443973569374609</v>
       </c>
       <c r="F26">
-        <v>1.849405630521655</v>
+        <v>5.688856103011479</v>
       </c>
       <c r="G26">
-        <v>70.43649262634879</v>
+        <v>216.665865151012</v>
       </c>
       <c r="H26">
-        <v>0.3606261944822355</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I26">
-        <v>117.9562176447154</v>
+        <v>362.8387075078888</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>32.8009612192521</v>
+        <v>100.8972533322242</v>
       </c>
       <c r="C27">
-        <v>0.01496326618868091</v>
+        <v>0.04602768953096142</v>
       </c>
       <c r="D27">
-        <v>11.29173137276288</v>
+        <v>34.73388091469645</v>
       </c>
       <c r="E27">
-        <v>2.356749913274057</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F27">
-        <v>1.720023343612733</v>
+        <v>5.290870285105327</v>
       </c>
       <c r="G27">
-        <v>62.70069285813705</v>
+        <v>192.8701920997449</v>
       </c>
       <c r="H27">
-        <v>0.2833491528074709</v>
+        <v>0.8715949225142358</v>
       </c>
       <c r="I27">
-        <v>111.168471126035</v>
+        <v>341.9592895093625</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>34.73042952626694</v>
+        <v>106.8323858811786</v>
       </c>
       <c r="C28">
-        <v>0.01425072970350562</v>
+        <v>0.04383589479139183</v>
       </c>
       <c r="D28">
-        <v>11.50681197033931</v>
+        <v>35.39547864640495</v>
       </c>
       <c r="E28">
-        <v>2.160354087167885</v>
+        <v>6.645347743417568</v>
       </c>
       <c r="F28">
-        <v>1.68958045257534</v>
+        <v>5.197226563245055</v>
       </c>
       <c r="G28">
-        <v>59.44351400836369</v>
+        <v>182.8509613413164</v>
       </c>
       <c r="H28">
-        <v>0.4894212639401768</v>
+        <v>1.505482138888225</v>
       </c>
       <c r="I28">
-        <v>110.0343620383568</v>
+        <v>338.4707182092421</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>34.38515625027481</v>
+        <v>105.770309530313</v>
       </c>
       <c r="C29">
-        <v>0.01282565673315506</v>
+        <v>0.03945230531225264</v>
       </c>
       <c r="D29">
-        <v>9.571086592151397</v>
+        <v>29.44109906102842</v>
       </c>
       <c r="E29">
-        <v>2.356749913274057</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F29">
-        <v>1.925512858115139</v>
+        <v>5.922965407662158</v>
       </c>
       <c r="G29">
-        <v>40.71473562216691</v>
+        <v>125.2403844803537</v>
       </c>
       <c r="H29">
-        <v>0.3606261944822355</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I29">
-        <v>89.32669308719771</v>
+        <v>274.7729836788705</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>36.84268956763056</v>
+        <v>113.329794145297</v>
       </c>
       <c r="C30">
-        <v>0.01246938849056742</v>
+        <v>0.03835640794246784</v>
       </c>
       <c r="D30">
-        <v>13.33499704973901</v>
+        <v>41.01905936592724</v>
       </c>
       <c r="E30">
-        <v>2.42221518864278</v>
+        <v>7.450844439589391</v>
       </c>
       <c r="F30">
-        <v>1.780909125687519</v>
+        <v>5.478157728825869</v>
       </c>
       <c r="G30">
-        <v>49.26483010282195</v>
+        <v>151.540865221228</v>
       </c>
       <c r="H30">
-        <v>0.3606261944822355</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I30">
-        <v>104.0187366174946</v>
+        <v>319.9663799374644</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>38.5893661402966</v>
+        <v>118.7026509790873</v>
       </c>
       <c r="C31">
-        <v>0.0131819249757427</v>
+        <v>0.04054820268203744</v>
       </c>
       <c r="D31">
-        <v>12.6897552570097</v>
+        <v>39.03426617080174</v>
       </c>
       <c r="E31">
-        <v>2.291284637905332</v>
+        <v>7.048096091503476</v>
       </c>
       <c r="F31">
-        <v>1.727634066372082</v>
+        <v>5.314281215570396</v>
       </c>
       <c r="G31">
-        <v>42.34332504705361</v>
+        <v>130.2499998595679</v>
       </c>
       <c r="H31">
-        <v>0.4121442222654122</v>
+        <v>1.267774432747979</v>
       </c>
       <c r="I31">
-        <v>98.0666912958785</v>
+        <v>301.6576169519608</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>43.87001624370563</v>
+        <v>134.9461716393834</v>
       </c>
       <c r="C32">
-        <v>0.009975510792453936</v>
+        <v>0.03068512635397427</v>
       </c>
       <c r="D32">
-        <v>13.65761794610367</v>
+        <v>42.01145596349001</v>
       </c>
       <c r="E32">
-        <v>3.338729043804914</v>
+        <v>10.27008287619079</v>
       </c>
       <c r="F32">
-        <v>1.651526838778597</v>
+        <v>5.080171910919716</v>
       </c>
       <c r="G32">
-        <v>24.83598872952182</v>
+        <v>76.39663453301587</v>
       </c>
       <c r="H32">
-        <v>0.5409392917233534</v>
+        <v>1.663953942981722</v>
       </c>
       <c r="I32">
-        <v>87.90479360443042</v>
+        <v>270.3991559923355</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>47.9523649774949</v>
+        <v>147.5036626113816</v>
       </c>
       <c r="C33">
-        <v>0.007837901336928093</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D33">
-        <v>11.72189256791575</v>
+        <v>36.05707637811346</v>
       </c>
       <c r="E33">
-        <v>4.778965101916838</v>
+        <v>14.70031470513583</v>
       </c>
       <c r="F33">
-        <v>1.202494195977043</v>
+        <v>3.698927013480716</v>
       </c>
       <c r="G33">
-        <v>19.13592574241845</v>
+        <v>58.86298070576625</v>
       </c>
       <c r="H33">
-        <v>0.1803130972411177</v>
+        <v>0.5546513143272407</v>
       </c>
       <c r="I33">
-        <v>84.97979358430101</v>
+        <v>261.4017224703404</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>48.70384210759538</v>
+        <v>149.8152405515007</v>
       </c>
       <c r="C34">
-        <v>0.009262974307278656</v>
+        <v>0.02849333161440468</v>
       </c>
       <c r="D34">
-        <v>9.248465695786738</v>
+        <v>28.44870246346566</v>
       </c>
       <c r="E34">
-        <v>5.106291478760456</v>
+        <v>15.70718557535061</v>
       </c>
       <c r="F34">
-        <v>0.6469114345446115</v>
+        <v>1.989929089530764</v>
       </c>
       <c r="G34">
-        <v>10.17868390554173</v>
+        <v>31.31009612008843</v>
       </c>
       <c r="H34">
-        <v>0.07727704167476479</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I34">
-        <v>73.97073463821094</v>
+        <v>227.5373548376908</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>31.44017830798903</v>
+        <v>96.71142300822478</v>
       </c>
       <c r="C35">
-        <v>0.01460699794609326</v>
+        <v>0.04493179216117662</v>
       </c>
       <c r="D35">
-        <v>5.592095536987328</v>
+        <v>17.2015410244211</v>
       </c>
       <c r="E35">
-        <v>4.189777623598323</v>
+        <v>12.88794713874922</v>
       </c>
       <c r="F35">
-        <v>0.2968181876145867</v>
+        <v>0.9130262881376451</v>
       </c>
       <c r="G35">
-        <v>7.735799768211717</v>
+        <v>23.79567305126721</v>
       </c>
       <c r="H35">
-        <v>0.103036055566353</v>
+        <v>0.3169436081869947</v>
       </c>
       <c r="I35">
-        <v>49.37231247791343</v>
+        <v>151.8714859111481</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>27.0937970690293</v>
+        <v>83.34175600321181</v>
       </c>
       <c r="C36">
-        <v>0.01603207091644383</v>
+        <v>0.04931538164031581</v>
       </c>
       <c r="D36">
-        <v>4.624232847893369</v>
+        <v>14.22435123173283</v>
       </c>
       <c r="E36">
-        <v>3.60059014527981</v>
+        <v>11.07557957236261</v>
       </c>
       <c r="F36">
-        <v>0.3577039696893737</v>
+        <v>1.100313731858187</v>
       </c>
       <c r="G36">
-        <v>6.514357699546706</v>
+        <v>20.0384615168566</v>
       </c>
       <c r="H36">
-        <v>0.07727704167476479</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I36">
-        <v>42.28399084402977</v>
+        <v>130.0674851438026</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>20.61484559600056</v>
+        <v>63.41220565461769</v>
       </c>
       <c r="C37">
-        <v>0.008906706064691015</v>
+        <v>0.02739743424461989</v>
       </c>
       <c r="D37">
-        <v>3.978991055164061</v>
+        <v>12.23955803660732</v>
       </c>
       <c r="E37">
-        <v>2.945937391592572</v>
+        <v>9.061837831933047</v>
       </c>
       <c r="F37">
-        <v>0.243543128299148</v>
+        <v>0.7491497748821703</v>
       </c>
       <c r="G37">
-        <v>4.885768274660032</v>
+        <v>15.02884613764245</v>
       </c>
       <c r="I37">
-        <v>32.67799215178106</v>
+        <v>100.5189948699273</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>15.0701629874211</v>
+        <v>46.35650896130672</v>
       </c>
       <c r="C38">
-        <v>0.009619242549866295</v>
+        <v>0.02958922898418949</v>
       </c>
       <c r="D38">
-        <v>3.226208963646534</v>
+        <v>9.923965975627558</v>
       </c>
       <c r="E38">
-        <v>1.440236058111923</v>
+        <v>4.430231828945042</v>
       </c>
       <c r="F38">
-        <v>0.243543128299148</v>
+        <v>0.7491497748821703</v>
       </c>
       <c r="G38">
-        <v>5.292915630881701</v>
+        <v>16.28124998244599</v>
       </c>
       <c r="H38">
-        <v>0.02575901389158826</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I38">
-        <v>25.30844502480186</v>
+        <v>77.84993165423842</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>9.423929415314539</v>
+        <v>28.98843687068238</v>
       </c>
       <c r="C39">
-        <v>0.002493877698113484</v>
+        <v>0.007671281588493568</v>
       </c>
       <c r="D39">
-        <v>1.398023884246832</v>
+        <v>4.300385256105274</v>
       </c>
       <c r="E39">
-        <v>1.309305507374477</v>
+        <v>4.02748348085913</v>
       </c>
       <c r="F39">
-        <v>0.1369930096682707</v>
+        <v>0.4213967483712208</v>
       </c>
       <c r="G39">
-        <v>7.735799768211717</v>
+        <v>23.79567305126721</v>
       </c>
       <c r="H39">
-        <v>0.02575901389158826</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I39">
-        <v>20.03230447640554</v>
+        <v>61.62028259092045</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>6.621122821966682</v>
+        <v>20.36687590483287</v>
       </c>
       <c r="C40">
-        <v>0.005700291881402249</v>
+        <v>0.01753435791655673</v>
       </c>
       <c r="D40">
-        <v>0.967862689093961</v>
+        <v>2.977189792688268</v>
       </c>
       <c r="E40">
-        <v>0.6546527536872384</v>
+        <v>2.013741740429565</v>
       </c>
       <c r="F40">
-        <v>0.2739860193365415</v>
+        <v>0.8427934967424416</v>
       </c>
       <c r="G40">
-        <v>4.885768274660032</v>
+        <v>15.02884613764245</v>
       </c>
       <c r="H40">
-        <v>0.05151802778317652</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I40">
-        <v>13.46061087840903</v>
+        <v>41.40545323434566</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>4.285450660843467</v>
+        <v>13.18224176662495</v>
       </c>
       <c r="C41">
-        <v>0.008550437822103372</v>
+        <v>0.02630153687483509</v>
       </c>
       <c r="D41">
-        <v>0.3226208963646537</v>
+        <v>0.9923965975627558</v>
       </c>
       <c r="F41">
-        <v>0.1978787917430577</v>
+        <v>0.6086841920917633</v>
       </c>
       <c r="G41">
-        <v>8.142947124433382</v>
+        <v>25.04807689607076</v>
       </c>
       <c r="I41">
-        <v>12.95744791120666</v>
+        <v>39.85770098922507</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>2.76218620793702</v>
+        <v>8.496610806924139</v>
       </c>
       <c r="C42">
-        <v>0.005700291881402249</v>
+        <v>0.01753435791655673</v>
       </c>
       <c r="D42">
-        <v>1.075402987882179</v>
+        <v>3.307988658542518</v>
       </c>
       <c r="F42">
-        <v>0.1369930096682707</v>
+        <v>0.4213967483712208</v>
       </c>
       <c r="G42">
-        <v>10.17868390554173</v>
+        <v>31.31009612008843</v>
       </c>
       <c r="I42">
-        <v>14.1589664029106</v>
+        <v>43.55362669184287</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>3.107459483929148</v>
+        <v>9.558687157789656</v>
       </c>
       <c r="C43">
-        <v>0.004987755396226968</v>
+        <v>0.01534256317698714</v>
       </c>
       <c r="D43">
-        <v>0.967862689093961</v>
+        <v>2.977189792688268</v>
       </c>
       <c r="E43">
-        <v>0.5237222029497903</v>
+        <v>1.610993392343652</v>
       </c>
       <c r="F43">
-        <v>0.1674359007056643</v>
+        <v>0.515040470231492</v>
       </c>
       <c r="G43">
-        <v>9.771536549320064</v>
+        <v>30.05769227528491</v>
       </c>
       <c r="I43">
-        <v>14.54300458139485</v>
+        <v>44.73494565151496</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>5.54468260857946</v>
+        <v>17.05569669331096</v>
       </c>
       <c r="C44">
-        <v>0.003206414183288766</v>
+        <v>0.00986307632806316</v>
       </c>
       <c r="D44">
-        <v>2.150805975764358</v>
+        <v>6.615977317085036</v>
       </c>
       <c r="E44">
-        <v>0.2618611014748952</v>
+        <v>0.8054966961718261</v>
       </c>
       <c r="F44">
-        <v>0.3424825241706768</v>
+        <v>1.053491870928052</v>
       </c>
       <c r="G44">
-        <v>12.62156804287175</v>
+        <v>38.8245191889097</v>
       </c>
       <c r="I44">
-        <v>20.92460666704443</v>
+        <v>64.36504484273362</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>13.34379660746046</v>
+        <v>41.04612720697911</v>
       </c>
       <c r="C45">
-        <v>0.002493877698113484</v>
+        <v>0.007671281588493568</v>
       </c>
       <c r="D45">
-        <v>4.624232847893369</v>
+        <v>14.22435123173283</v>
       </c>
       <c r="E45">
-        <v>2.356749913274057</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F45">
-        <v>0.6088578207478701</v>
+        <v>1.872874437205426</v>
       </c>
       <c r="G45">
-        <v>18.32163102997511</v>
+        <v>56.35817301615919</v>
       </c>
       <c r="H45">
-        <v>0.07727704167476479</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I45">
-        <v>39.33503913872374</v>
+        <v>120.9963751453517</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>25.36743068906867</v>
+        <v>78.03137424888421</v>
       </c>
       <c r="C46">
-        <v>0.003562682425876405</v>
+        <v>0.01095897369784796</v>
       </c>
       <c r="D46">
-        <v>9.893707488516045</v>
+        <v>30.43349565859118</v>
       </c>
       <c r="E46">
-        <v>6.284666435397486</v>
+        <v>19.33192070812381</v>
       </c>
       <c r="F46">
-        <v>1.042669018030727</v>
+        <v>3.207297473714291</v>
       </c>
       <c r="G46">
-        <v>31.75749378529019</v>
+        <v>97.68749989467595</v>
       </c>
       <c r="H46">
-        <v>0.2833491528074709</v>
+        <v>0.8715949225142358</v>
       </c>
       <c r="I46">
-        <v>74.63287925153647</v>
+        <v>229.5741418802015</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>40.84379753059815</v>
+        <v>125.6373847994444</v>
       </c>
       <c r="C47">
-        <v>0.003918950668464046</v>
+        <v>0.01205487106763275</v>
       </c>
       <c r="D47">
-        <v>7.742901512751688</v>
+        <v>23.81751834150615</v>
       </c>
       <c r="E47">
-        <v>6.21920116002876</v>
+        <v>19.13054653408086</v>
       </c>
       <c r="F47">
-        <v>1.21771564149574</v>
+        <v>3.745748874410851</v>
       </c>
       <c r="G47">
-        <v>40.30758826594521</v>
+        <v>123.9879806355502</v>
       </c>
       <c r="H47">
-        <v>0.2575901389158826</v>
+        <v>0.7923590204674864</v>
       </c>
       <c r="I47">
-        <v>96.59271320040388</v>
+        <v>297.1235930765276</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>50.12555559697473</v>
+        <v>154.188496113888</v>
       </c>
       <c r="C48">
-        <v>0.007837901336928093</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D48">
-        <v>11.29173137276288</v>
+        <v>34.73388091469645</v>
       </c>
       <c r="E48">
-        <v>3.796985971385981</v>
+        <v>11.67970209449147</v>
       </c>
       <c r="F48">
-        <v>1.491701660832281</v>
+        <v>4.588542371153291</v>
       </c>
       <c r="G48">
-        <v>49.26483010282195</v>
+        <v>151.540865221228</v>
       </c>
       <c r="H48">
-        <v>0.5666983056149417</v>
+        <v>1.743189845028472</v>
       </c>
       <c r="I48">
-        <v>116.5453409117297</v>
+        <v>358.4987863026209</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>36.45679590622758</v>
+        <v>112.1427676355061</v>
       </c>
       <c r="C49">
-        <v>0.01389446146091798</v>
+        <v>0.04273999742160702</v>
       </c>
       <c r="D49">
-        <v>15.80842392186802</v>
+        <v>48.62743328057502</v>
       </c>
       <c r="E49">
-        <v>3.796985971385981</v>
+        <v>11.67970209449147</v>
       </c>
       <c r="F49">
-        <v>1.674359007056643</v>
+        <v>5.150404702314921</v>
       </c>
       <c r="G49">
-        <v>65.55072435168876</v>
+        <v>201.6370190133696</v>
       </c>
       <c r="H49">
-        <v>0.7985294306392361</v>
+        <v>2.456312963449209</v>
       </c>
       <c r="I49">
-        <v>124.0997130503271</v>
+        <v>381.7363796871279</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_VOC.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>98.83557570995583</v>
+        <v>30.90902429495529</v>
       </c>
       <c r="C2">
-        <v>0.04821948427053101</v>
+        <v>0.01507976454937496</v>
       </c>
       <c r="D2">
-        <v>25.14071380492315</v>
+        <v>7.862299867299825</v>
       </c>
       <c r="E2">
-        <v>6.645347743417568</v>
+        <v>2.078211346210931</v>
       </c>
       <c r="F2">
-        <v>5.829321685801886</v>
+        <v>1.82301407479342</v>
       </c>
       <c r="G2">
-        <v>199.1322113237625</v>
+        <v>62.27496843623229</v>
       </c>
       <c r="H2">
-        <v>1.030066726607733</v>
+        <v>0.3221345881727521</v>
       </c>
       <c r="I2">
-        <v>336.6614564787392</v>
+        <v>105.2847323722139</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>102.9589309544926</v>
+        <v>32.19852846908109</v>
       </c>
       <c r="C3">
-        <v>0.05917845796837898</v>
+        <v>0.018506983765142</v>
       </c>
       <c r="D3">
-        <v>24.1483172073604</v>
+        <v>7.551945925169564</v>
       </c>
       <c r="E3">
-        <v>7.450844439589391</v>
+        <v>2.330115751812257</v>
       </c>
       <c r="F3">
-        <v>5.431335867895734</v>
+        <v>1.698551266474191</v>
       </c>
       <c r="G3">
-        <v>176.5889421172988</v>
+        <v>55.22497200948902</v>
       </c>
       <c r="H3">
-        <v>0.7923590204674864</v>
+        <v>0.2477958370559631</v>
       </c>
       <c r="I3">
-        <v>317.4299080650727</v>
+        <v>99.27041624284722</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>109.0190136623723</v>
+        <v>34.09370884620541</v>
       </c>
       <c r="C4">
-        <v>0.05698666322880936</v>
+        <v>0.01782153992198859</v>
       </c>
       <c r="D4">
-        <v>24.47911607321463</v>
+        <v>7.655397239212983</v>
       </c>
       <c r="E4">
-        <v>6.84672191746052</v>
+        <v>2.141187447611264</v>
       </c>
       <c r="F4">
-        <v>5.337692146035462</v>
+        <v>1.669265899810843</v>
       </c>
       <c r="G4">
-        <v>167.8221152036739</v>
+        <v>52.48330673242215</v>
       </c>
       <c r="H4">
-        <v>1.347010334794728</v>
+        <v>0.4212529229951372</v>
       </c>
       <c r="I4">
-        <v>314.9086560007804</v>
+        <v>98.48194062817979</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>107.9569373115067</v>
+        <v>33.76156383165785</v>
       </c>
       <c r="C5">
-        <v>0.0515071763798854</v>
+        <v>0.01610793031410507</v>
       </c>
       <c r="D5">
-        <v>20.50952968296362</v>
+        <v>6.413981470691961</v>
       </c>
       <c r="E5">
-        <v>7.450844439589391</v>
+        <v>2.330115751812257</v>
       </c>
       <c r="F5">
-        <v>6.086841920917633</v>
+        <v>1.903548833117628</v>
       </c>
       <c r="G5">
-        <v>115.2211537219255</v>
+        <v>36.03331507002117</v>
       </c>
       <c r="H5">
-        <v>1.030066726607733</v>
+        <v>0.3221345881727521</v>
       </c>
       <c r="I5">
-        <v>258.3068809798905</v>
+        <v>80.78076747578773</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>115.6413720854161</v>
+        <v>36.16473070161961</v>
       </c>
       <c r="C6">
-        <v>0.05041127901010059</v>
+        <v>0.01576520839252836</v>
       </c>
       <c r="D6">
-        <v>28.44870246346566</v>
+        <v>8.896813007734007</v>
       </c>
       <c r="E6">
-        <v>7.652218613632345</v>
+        <v>2.393091853212587</v>
       </c>
       <c r="F6">
-        <v>5.618623311616276</v>
+        <v>1.757121999800887</v>
       </c>
       <c r="G6">
-        <v>139.0168267731926</v>
+        <v>43.47497796491688</v>
       </c>
       <c r="H6">
-        <v>1.030066726607733</v>
+        <v>0.3221345881727521</v>
       </c>
       <c r="I6">
-        <v>297.4582212529409</v>
+        <v>93.02463532384927</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>121.1391790781318</v>
+        <v>37.88406960045402</v>
       </c>
       <c r="C7">
-        <v>0.05260307374967019</v>
+        <v>0.01645065223568178</v>
       </c>
       <c r="D7">
-        <v>27.12550700004865</v>
+        <v>8.483007751560331</v>
       </c>
       <c r="E7">
-        <v>7.249470265546433</v>
+        <v>2.267139650411925</v>
       </c>
       <c r="F7">
-        <v>5.454746798360802</v>
+        <v>1.705872608140027</v>
       </c>
       <c r="G7">
-        <v>118.978365256336</v>
+        <v>37.20831447447841</v>
       </c>
       <c r="H7">
-        <v>1.18853853070123</v>
+        <v>0.3716937555839445</v>
       </c>
       <c r="I7">
-        <v>281.1884100028745</v>
+        <v>87.93654849286435</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>137.6950751357411</v>
+        <v>43.06162423898953</v>
       </c>
       <c r="C8">
-        <v>0.03945230531225264</v>
+        <v>0.01233798917676133</v>
       </c>
       <c r="D8">
-        <v>29.11030019517416</v>
+        <v>9.103715635820844</v>
       </c>
       <c r="E8">
-        <v>10.67283122427669</v>
+        <v>3.337733374217557</v>
       </c>
       <c r="F8">
-        <v>5.220637493710123</v>
+        <v>1.632659191481658</v>
       </c>
       <c r="G8">
-        <v>70.13461530899808</v>
+        <v>21.93332221653462</v>
       </c>
       <c r="H8">
-        <v>1.505482138888225</v>
+        <v>0.4708120904063298</v>
       </c>
       <c r="I8">
-        <v>254.3783938021007</v>
+        <v>79.5522047366273</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>150.5024664255902</v>
+        <v>47.06690235559245</v>
       </c>
       <c r="C9">
-        <v>0.03178102372375907</v>
+        <v>0.009938935725724405</v>
       </c>
       <c r="D9">
-        <v>25.14071380492315</v>
+        <v>7.862299867299825</v>
       </c>
       <c r="E9">
-        <v>15.10306305322174</v>
+        <v>4.723207605024844</v>
       </c>
       <c r="F9">
-        <v>3.792570735340986</v>
+        <v>1.186057349865598</v>
       </c>
       <c r="G9">
-        <v>53.85336532655212</v>
+        <v>16.84165813055338</v>
       </c>
       <c r="H9">
-        <v>0.4754154122804919</v>
+        <v>0.1486775022335778</v>
       </c>
       <c r="I9">
-        <v>248.8993757816324</v>
+        <v>77.83874174629541</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>152.8765194451719</v>
+        <v>47.80934415281643</v>
       </c>
       <c r="C10">
-        <v>0.03726051057268304</v>
+        <v>0.01165254533360792</v>
       </c>
       <c r="D10">
-        <v>19.84793195125512</v>
+        <v>6.207078842605123</v>
       </c>
       <c r="E10">
-        <v>16.10993392343652</v>
+        <v>5.038088112026502</v>
       </c>
       <c r="F10">
-        <v>2.036750950460901</v>
+        <v>0.6369567249278213</v>
       </c>
       <c r="G10">
-        <v>28.80528843048137</v>
+        <v>9.008328767505294</v>
       </c>
       <c r="H10">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I10">
-        <v>219.9513929175188</v>
+        <v>68.78578789633156</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>98.7106255510305</v>
+        <v>30.86994841089086</v>
       </c>
       <c r="C11">
-        <v>0.05808256059859417</v>
+        <v>0.01816426184356529</v>
       </c>
       <c r="D11">
-        <v>11.90875917075307</v>
+        <v>3.724247305563073</v>
       </c>
       <c r="E11">
-        <v>13.29069548683514</v>
+        <v>4.156422692421861</v>
       </c>
       <c r="F11">
-        <v>0.9364372186027128</v>
+        <v>0.2928536666334812</v>
       </c>
       <c r="G11">
-        <v>21.29086536166013</v>
+        <v>6.658329958590872</v>
       </c>
       <c r="H11">
-        <v>0.3169436081869947</v>
+        <v>0.09911833482238522</v>
       </c>
       <c r="I11">
-        <v>146.5124089576671</v>
+        <v>45.8190846307661</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>85.02858314870407</v>
+        <v>26.59113910583701</v>
       </c>
       <c r="C12">
-        <v>0.06465794481730294</v>
+        <v>0.02022059337302552</v>
       </c>
       <c r="D12">
-        <v>9.923965975627558</v>
+        <v>3.103539421302561</v>
       </c>
       <c r="E12">
-        <v>11.47832792044852</v>
+        <v>3.58963777981888</v>
       </c>
       <c r="F12">
-        <v>1.123724662323255</v>
+        <v>0.3514243999601775</v>
       </c>
       <c r="G12">
-        <v>18.78605767205307</v>
+        <v>5.874997022286063</v>
       </c>
       <c r="H12">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I12">
-        <v>126.643025030114</v>
+        <v>39.60529707369451</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>64.72418232333396</v>
+        <v>20.24130794536895</v>
       </c>
       <c r="C13">
-        <v>0.03616461320289825</v>
+        <v>0.01130982341203122</v>
       </c>
       <c r="D13">
-        <v>8.600770512210548</v>
+        <v>2.689734165128886</v>
       </c>
       <c r="E13">
-        <v>9.263212005976001</v>
+        <v>2.896900664415238</v>
       </c>
       <c r="F13">
-        <v>0.772560705347238</v>
+        <v>0.241604274972622</v>
       </c>
       <c r="G13">
-        <v>13.77644229283892</v>
+        <v>4.308331149676444</v>
       </c>
       <c r="I13">
-        <v>97.17333245290956</v>
+        <v>30.38918802297417</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>47.29363515324688</v>
+        <v>14.79022211838252</v>
       </c>
       <c r="C14">
-        <v>0.03835640794246784</v>
+        <v>0.01199526725518463</v>
       </c>
       <c r="D14">
-        <v>6.946776182939291</v>
+        <v>2.172477594911793</v>
       </c>
       <c r="E14">
-        <v>4.631606002988001</v>
+        <v>1.448450332207619</v>
       </c>
       <c r="F14">
-        <v>0.772560705347238</v>
+        <v>0.241604274972622</v>
       </c>
       <c r="G14">
-        <v>15.02884613764245</v>
+        <v>4.69999761782885</v>
       </c>
       <c r="H14">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I14">
-        <v>74.79101649215308</v>
+        <v>23.38952678926418</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>29.61318766530917</v>
+        <v>9.260984523267258</v>
       </c>
       <c r="C15">
-        <v>0.00986307632806316</v>
+        <v>0.003084497294190333</v>
       </c>
       <c r="D15">
-        <v>2.977189792688268</v>
+        <v>0.9310618263907683</v>
       </c>
       <c r="E15">
-        <v>4.228857654902087</v>
+        <v>1.322498129406956</v>
       </c>
       <c r="F15">
-        <v>0.4213967483712208</v>
+        <v>0.1317841499850665</v>
       </c>
       <c r="G15">
-        <v>21.29086536166013</v>
+        <v>6.658329958590872</v>
       </c>
       <c r="H15">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I15">
-        <v>58.62059620130569</v>
+        <v>18.33252266864071</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>20.80420146107161</v>
+        <v>6.506134696725733</v>
       </c>
       <c r="C16">
-        <v>0.02301384476548071</v>
+        <v>0.007197160353110777</v>
       </c>
       <c r="D16">
-        <v>1.984793195125512</v>
+        <v>0.6207078842605122</v>
       </c>
       <c r="E16">
-        <v>2.013741740429565</v>
+        <v>0.6297610140033127</v>
       </c>
       <c r="F16">
-        <v>0.8662044272075092</v>
+        <v>0.2708896416359702</v>
       </c>
       <c r="G16">
-        <v>13.77644229283892</v>
+        <v>4.308331149676444</v>
       </c>
       <c r="H16">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I16">
-        <v>39.62686876553209</v>
+        <v>12.39258071406628</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>13.43214208447566</v>
+        <v>4.200657536925021</v>
       </c>
       <c r="C17">
-        <v>0.03397281846332866</v>
+        <v>0.01062437956887781</v>
       </c>
       <c r="D17">
-        <v>0.6615977317085036</v>
+        <v>0.2069026280868374</v>
       </c>
       <c r="F17">
-        <v>0.6320951225568313</v>
+        <v>0.1976762249775998</v>
       </c>
       <c r="G17">
-        <v>22.54326920646368</v>
+        <v>7.049996426743275</v>
       </c>
       <c r="I17">
-        <v>37.303076963668</v>
+        <v>11.66585719630161</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>8.684036045312174</v>
+        <v>2.715773942477106</v>
       </c>
       <c r="C18">
-        <v>0.02301384476548071</v>
+        <v>0.007197160353110777</v>
       </c>
       <c r="D18">
-        <v>2.315592060979764</v>
+        <v>0.7241591983039314</v>
       </c>
       <c r="F18">
-        <v>0.4213967483712208</v>
+        <v>0.1317841499850665</v>
       </c>
       <c r="G18">
-        <v>28.80528843048137</v>
+        <v>9.008328767505294</v>
       </c>
       <c r="I18">
-        <v>40.24932712991001</v>
+        <v>12.58724321862451</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>9.746112396177693</v>
+        <v>3.047918957024669</v>
       </c>
       <c r="C19">
-        <v>0.01972615265612632</v>
+        <v>0.006168994588380665</v>
       </c>
       <c r="D19">
-        <v>1.984793195125512</v>
+        <v>0.6207078842605122</v>
       </c>
       <c r="E19">
-        <v>1.610993392343652</v>
+        <v>0.5038088112026501</v>
       </c>
       <c r="F19">
-        <v>0.5384514006965598</v>
+        <v>0.1683908583142517</v>
       </c>
       <c r="G19">
-        <v>27.55288458567784</v>
+        <v>8.616662299352887</v>
       </c>
       <c r="I19">
-        <v>41.45296112267738</v>
+        <v>12.96365780474335</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>17.43054717008702</v>
+        <v>5.451085826986427</v>
       </c>
       <c r="C20">
-        <v>0.01315076843741755</v>
+        <v>0.004112663058920445</v>
       </c>
       <c r="D20">
-        <v>4.631184121959529</v>
+        <v>1.448318396607863</v>
       </c>
       <c r="E20">
-        <v>0.8054966961718261</v>
+        <v>0.251904405601325</v>
       </c>
       <c r="F20">
-        <v>1.07690280139312</v>
+        <v>0.3367817166285034</v>
       </c>
       <c r="G20">
-        <v>35.06730765449904</v>
+        <v>10.96666110826731</v>
       </c>
       <c r="I20">
-        <v>59.02458921254795</v>
+        <v>18.45886411715035</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>41.92077831945662</v>
+        <v>13.10995910361251</v>
       </c>
       <c r="C21">
-        <v>0.00986307632806316</v>
+        <v>0.003084497294190333</v>
       </c>
       <c r="D21">
-        <v>9.923965975627558</v>
+        <v>3.103539421302561</v>
       </c>
       <c r="E21">
-        <v>7.450844439589391</v>
+        <v>2.330115751812257</v>
       </c>
       <c r="F21">
-        <v>1.919696298135561</v>
+        <v>0.6003500165986364</v>
       </c>
       <c r="G21">
-        <v>51.34855763694505</v>
+        <v>16.05832519424857</v>
       </c>
       <c r="H21">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I21">
-        <v>112.8114134522225</v>
+        <v>35.27971273598552</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>79.65572631491384</v>
+        <v>24.91087609106699</v>
       </c>
       <c r="C22">
-        <v>0.01424666580720234</v>
+        <v>0.004455384980497147</v>
       </c>
       <c r="D22">
-        <v>21.17112741467211</v>
+        <v>6.620884098778796</v>
       </c>
       <c r="E22">
-        <v>19.93604323025268</v>
+        <v>6.234634038632795</v>
       </c>
       <c r="F22">
-        <v>3.300941195574563</v>
+        <v>1.032309174883021</v>
       </c>
       <c r="G22">
-        <v>90.17307682585471</v>
+        <v>28.1999857069731</v>
       </c>
       <c r="H22">
-        <v>0.7923590204674864</v>
+        <v>0.2477958370559631</v>
       </c>
       <c r="I22">
-        <v>215.0435206675426</v>
+        <v>67.25094033237116</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>128.1988630574143</v>
+        <v>40.09185705009369</v>
       </c>
       <c r="C23">
-        <v>0.01534256317698714</v>
+        <v>0.004798106902073851</v>
       </c>
       <c r="D23">
-        <v>16.53994329271261</v>
+        <v>5.172565702170933</v>
       </c>
       <c r="E23">
-        <v>19.73466905620973</v>
+        <v>6.171657937232462</v>
       </c>
       <c r="F23">
-        <v>3.839392596271122</v>
+        <v>1.200700033197273</v>
       </c>
       <c r="G23">
-        <v>113.9687498771219</v>
+        <v>35.64164860186879</v>
       </c>
       <c r="H23">
-        <v>0.7131231184207378</v>
+        <v>0.2230162533503667</v>
       </c>
       <c r="I23">
-        <v>283.0100835613274</v>
+        <v>88.50624368481557</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>157.3747251664847</v>
+        <v>49.21607597913553</v>
       </c>
       <c r="C24">
-        <v>0.03178102372375907</v>
+        <v>0.009938935725724405</v>
       </c>
       <c r="D24">
-        <v>24.1483172073604</v>
+        <v>7.551945925169564</v>
       </c>
       <c r="E24">
-        <v>12.08245044257739</v>
+        <v>3.778566084019873</v>
       </c>
       <c r="F24">
-        <v>4.705597023478632</v>
+        <v>1.471589674833243</v>
       </c>
       <c r="G24">
-        <v>139.0168267731926</v>
+        <v>43.47497796491688</v>
       </c>
       <c r="H24">
-        <v>1.584718040934973</v>
+        <v>0.4955916741119261</v>
       </c>
       <c r="I24">
-        <v>338.9444156777525</v>
+        <v>105.9986862379127</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>114.4543455756252</v>
+        <v>35.79350980300764</v>
       </c>
       <c r="C25">
-        <v>0.05589076585902457</v>
+        <v>0.01747881800041188</v>
       </c>
       <c r="D25">
-        <v>33.74148431713368</v>
+        <v>10.55203403242871</v>
       </c>
       <c r="E25">
-        <v>12.08245044257739</v>
+        <v>3.778566084019873</v>
       </c>
       <c r="F25">
-        <v>5.290870285105327</v>
+        <v>1.654623216479168</v>
       </c>
       <c r="G25">
-        <v>185.3557690309236</v>
+        <v>57.96663728655582</v>
       </c>
       <c r="H25">
-        <v>2.218605257308963</v>
+        <v>0.6938283437566967</v>
       </c>
       <c r="I25">
-        <v>353.1994156745332</v>
+        <v>110.4566775842483</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>96.83637316715014</v>
+        <v>30.28381014992458</v>
       </c>
       <c r="C26">
-        <v>0.03726051057268304</v>
+        <v>0.01165254533360792</v>
       </c>
       <c r="D26">
-        <v>36.05707637811346</v>
+        <v>11.27619323073264</v>
       </c>
       <c r="E26">
-        <v>6.443973569374609</v>
+        <v>2.0152352448106</v>
       </c>
       <c r="F26">
-        <v>5.688856103011479</v>
+        <v>1.779086024798398</v>
       </c>
       <c r="G26">
-        <v>216.665865151012</v>
+        <v>67.75829899036589</v>
       </c>
       <c r="H26">
-        <v>1.109302628654481</v>
+        <v>0.3469141718783483</v>
       </c>
       <c r="I26">
-        <v>362.8387075078888</v>
+        <v>113.4711903578441</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>100.8972533322242</v>
+        <v>31.5537763820182</v>
       </c>
       <c r="C27">
-        <v>0.04602768953096142</v>
+        <v>0.01439432070622155</v>
       </c>
       <c r="D27">
-        <v>34.73388091469645</v>
+        <v>10.86238797455897</v>
       </c>
       <c r="E27">
-        <v>7.249470265546433</v>
+        <v>2.267139650411925</v>
       </c>
       <c r="F27">
-        <v>5.290870285105327</v>
+        <v>1.654623216479168</v>
       </c>
       <c r="G27">
-        <v>192.8701920997449</v>
+        <v>60.31663609547024</v>
       </c>
       <c r="H27">
-        <v>0.8715949225142358</v>
+        <v>0.2725754207615594</v>
       </c>
       <c r="I27">
-        <v>341.9592895093625</v>
+        <v>106.9415330604063</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>106.8323858811786</v>
+        <v>33.40988087507809</v>
       </c>
       <c r="C28">
-        <v>0.04383589479139183</v>
+        <v>0.01370887686306814</v>
       </c>
       <c r="D28">
-        <v>35.39547864640495</v>
+        <v>11.06929060264581</v>
       </c>
       <c r="E28">
-        <v>6.645347743417568</v>
+        <v>2.078211346210931</v>
       </c>
       <c r="F28">
-        <v>5.197226563245055</v>
+        <v>1.62533784981582</v>
       </c>
       <c r="G28">
-        <v>182.8509613413164</v>
+        <v>57.18330435025097</v>
       </c>
       <c r="H28">
-        <v>1.505482138888225</v>
+        <v>0.4708120904063298</v>
       </c>
       <c r="I28">
-        <v>338.4707182092421</v>
+        <v>105.850545991271</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>105.770309530313</v>
+        <v>33.07773586053052</v>
       </c>
       <c r="C29">
-        <v>0.03945230531225264</v>
+        <v>0.01233798917676133</v>
       </c>
       <c r="D29">
-        <v>29.44109906102842</v>
+        <v>9.207166949864266</v>
       </c>
       <c r="E29">
-        <v>7.249470265546433</v>
+        <v>2.267139650411925</v>
       </c>
       <c r="F29">
-        <v>5.922965407662158</v>
+        <v>1.852299441456769</v>
       </c>
       <c r="G29">
-        <v>125.2403844803537</v>
+        <v>39.1666468152404</v>
       </c>
       <c r="H29">
-        <v>1.109302628654481</v>
+        <v>0.3469141718783483</v>
       </c>
       <c r="I29">
-        <v>274.7729836788705</v>
+        <v>85.930240878559</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>113.329794145297</v>
+        <v>35.44182684642787</v>
       </c>
       <c r="C30">
-        <v>0.03835640794246784</v>
+        <v>0.01199526725518463</v>
       </c>
       <c r="D30">
-        <v>41.01905936592724</v>
+        <v>12.82796294138392</v>
       </c>
       <c r="E30">
-        <v>7.450844439589391</v>
+        <v>2.330115751812257</v>
       </c>
       <c r="F30">
-        <v>5.478157728825869</v>
+        <v>1.713193949805865</v>
       </c>
       <c r="G30">
-        <v>151.540865221228</v>
+        <v>47.39164264644089</v>
       </c>
       <c r="H30">
-        <v>1.109302628654481</v>
+        <v>0.3469141718783483</v>
       </c>
       <c r="I30">
-        <v>319.9663799374644</v>
+        <v>100.0636515750043</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>118.7026509790873</v>
+        <v>37.12208986119787</v>
       </c>
       <c r="C31">
-        <v>0.04054820268203744</v>
+        <v>0.01268071109833803</v>
       </c>
       <c r="D31">
-        <v>39.03426617080174</v>
+        <v>12.2072550571234</v>
       </c>
       <c r="E31">
-        <v>7.048096091503476</v>
+        <v>2.204163549011595</v>
       </c>
       <c r="F31">
-        <v>5.314281215570396</v>
+        <v>1.661944558145006</v>
       </c>
       <c r="G31">
-        <v>130.2499998595679</v>
+        <v>40.73331268785005</v>
       </c>
       <c r="H31">
-        <v>1.267774432747979</v>
+        <v>0.3964733392895409</v>
       </c>
       <c r="I31">
-        <v>301.6576169519608</v>
+        <v>94.3379197637158</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>134.9461716393834</v>
+        <v>42.20195478957231</v>
       </c>
       <c r="C32">
-        <v>0.03068512635397427</v>
+        <v>0.009596213804147703</v>
       </c>
       <c r="D32">
-        <v>42.01145596349001</v>
+        <v>13.13831688351418</v>
       </c>
       <c r="E32">
-        <v>10.27008287619079</v>
+        <v>3.211781171416893</v>
       </c>
       <c r="F32">
-        <v>5.080171910919716</v>
+        <v>1.588731141486636</v>
       </c>
       <c r="G32">
-        <v>76.39663453301587</v>
+        <v>23.89165455729665</v>
       </c>
       <c r="H32">
-        <v>1.663953942981722</v>
+        <v>0.5203712578175226</v>
       </c>
       <c r="I32">
-        <v>270.3991559923355</v>
+        <v>84.56240601490833</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>147.5036626113816</v>
+        <v>46.1290811380464</v>
       </c>
       <c r="C33">
-        <v>0.0241097421352655</v>
+        <v>0.00753988227468748</v>
       </c>
       <c r="D33">
-        <v>36.05707637811346</v>
+        <v>11.27619323073264</v>
       </c>
       <c r="E33">
-        <v>14.70031470513583</v>
+        <v>4.597255402224185</v>
       </c>
       <c r="F33">
-        <v>3.698927013480716</v>
+        <v>1.15677198320225</v>
       </c>
       <c r="G33">
-        <v>58.86298070576625</v>
+        <v>18.40832400316298</v>
       </c>
       <c r="H33">
-        <v>0.5546513143272407</v>
+        <v>0.1734570859391742</v>
       </c>
       <c r="I33">
-        <v>261.4017224703404</v>
+        <v>81.74862272558232</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>149.8152405515007</v>
+        <v>46.85198499323813</v>
       </c>
       <c r="C34">
-        <v>0.02849333161440468</v>
+        <v>0.008910769960994293</v>
       </c>
       <c r="D34">
-        <v>28.44870246346566</v>
+        <v>8.896813007734007</v>
       </c>
       <c r="E34">
-        <v>15.70718557535061</v>
+        <v>4.912135909225837</v>
       </c>
       <c r="F34">
-        <v>1.989929089530764</v>
+        <v>0.6223140415961472</v>
       </c>
       <c r="G34">
-        <v>31.31009612008843</v>
+        <v>9.791661703810099</v>
       </c>
       <c r="H34">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I34">
-        <v>227.5373548376908</v>
+        <v>71.15815917668199</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>96.71142300822478</v>
+        <v>30.24473426586016</v>
       </c>
       <c r="C35">
-        <v>0.04493179216117662</v>
+        <v>0.01405159878464485</v>
       </c>
       <c r="D35">
-        <v>17.2015410244211</v>
+        <v>5.379468330257771</v>
       </c>
       <c r="E35">
-        <v>12.88794713874922</v>
+        <v>4.030470489621201</v>
       </c>
       <c r="F35">
-        <v>0.9130262881376451</v>
+        <v>0.2855323249676441</v>
       </c>
       <c r="G35">
-        <v>23.79567305126721</v>
+        <v>7.441662894895678</v>
       </c>
       <c r="H35">
-        <v>0.3169436081869947</v>
+        <v>0.09911833482238522</v>
       </c>
       <c r="I35">
-        <v>151.8714859111481</v>
+        <v>47.49503823920949</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>83.34175600321181</v>
+        <v>26.06361467096736</v>
       </c>
       <c r="C36">
-        <v>0.04931538164031581</v>
+        <v>0.01542248647095167</v>
       </c>
       <c r="D36">
-        <v>14.22435123173283</v>
+        <v>4.448406503867004</v>
       </c>
       <c r="E36">
-        <v>11.07557957236261</v>
+        <v>3.46368557701822</v>
       </c>
       <c r="F36">
-        <v>1.100313731858187</v>
+        <v>0.3441030582943404</v>
       </c>
       <c r="G36">
-        <v>20.0384615168566</v>
+        <v>6.266663490438465</v>
       </c>
       <c r="H36">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I36">
-        <v>130.0674851438026</v>
+        <v>40.67623453817313</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>63.41220565461769</v>
+        <v>19.83101116269255</v>
       </c>
       <c r="C37">
-        <v>0.02739743424461989</v>
+        <v>0.008568048039417591</v>
       </c>
       <c r="D37">
-        <v>12.23955803660732</v>
+        <v>3.827698619606492</v>
       </c>
       <c r="E37">
-        <v>9.061837831933047</v>
+        <v>2.833924563014907</v>
       </c>
       <c r="F37">
-        <v>0.7491497748821703</v>
+        <v>0.234282933306785</v>
       </c>
       <c r="G37">
-        <v>15.02884613764245</v>
+        <v>4.69999761782885</v>
       </c>
       <c r="I37">
-        <v>100.5189948699273</v>
+        <v>31.435482944489</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>46.35650896130672</v>
+        <v>14.49715298789939</v>
       </c>
       <c r="C38">
-        <v>0.02958922898418949</v>
+        <v>0.009253491882571</v>
       </c>
       <c r="D38">
-        <v>9.923965975627558</v>
+        <v>3.103539421302561</v>
       </c>
       <c r="E38">
-        <v>4.430231828945042</v>
+        <v>1.385474230807288</v>
       </c>
       <c r="F38">
-        <v>0.7491497748821703</v>
+        <v>0.234282933306785</v>
       </c>
       <c r="G38">
-        <v>16.28124998244599</v>
+        <v>5.091664085981256</v>
       </c>
       <c r="H38">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I38">
-        <v>77.84993165423842</v>
+        <v>24.34614673488544</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>28.98843687068238</v>
+        <v>9.065605102945165</v>
       </c>
       <c r="C39">
-        <v>0.007671281588493568</v>
+        <v>0.002399053451036926</v>
       </c>
       <c r="D39">
-        <v>4.300385256105274</v>
+        <v>1.344867082564443</v>
       </c>
       <c r="E39">
-        <v>4.02748348085913</v>
+        <v>1.259522028006625</v>
       </c>
       <c r="F39">
-        <v>0.4213967483712208</v>
+        <v>0.1317841499850665</v>
       </c>
       <c r="G39">
-        <v>23.79567305126721</v>
+        <v>7.441662894895678</v>
       </c>
       <c r="H39">
-        <v>0.07923590204674867</v>
+        <v>0.0247795837055963</v>
       </c>
       <c r="I39">
-        <v>61.62028259092045</v>
+        <v>19.27061989555361</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>20.36687590483287</v>
+        <v>6.369369102500267</v>
       </c>
       <c r="C40">
-        <v>0.01753435791655673</v>
+        <v>0.005483550745227258</v>
       </c>
       <c r="D40">
-        <v>2.977189792688268</v>
+        <v>0.9310618263907683</v>
       </c>
       <c r="E40">
-        <v>2.013741740429565</v>
+        <v>0.6297610140033127</v>
       </c>
       <c r="F40">
-        <v>0.8427934967424416</v>
+        <v>0.263568299970133</v>
       </c>
       <c r="G40">
-        <v>15.02884613764245</v>
+        <v>4.69999761782885</v>
       </c>
       <c r="H40">
-        <v>0.1584718040934973</v>
+        <v>0.04955916741119261</v>
       </c>
       <c r="I40">
-        <v>41.40545323434566</v>
+        <v>12.94880057884975</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>13.18224176662495</v>
+        <v>4.122505768796183</v>
       </c>
       <c r="C41">
-        <v>0.02630153687483509</v>
+        <v>0.00822532611784089</v>
       </c>
       <c r="D41">
-        <v>0.9923965975627558</v>
+        <v>0.3103539421302561</v>
       </c>
       <c r="F41">
-        <v>0.6086841920917633</v>
+        <v>0.1903548833117628</v>
       </c>
       <c r="G41">
-        <v>25.04807689607076</v>
+        <v>7.833329363048088</v>
       </c>
       <c r="I41">
-        <v>39.85770098922507</v>
+        <v>12.46476928340413</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>8.496610806924139</v>
+        <v>2.657160116380478</v>
       </c>
       <c r="C42">
-        <v>0.01753435791655673</v>
+        <v>0.005483550745227258</v>
       </c>
       <c r="D42">
-        <v>3.307988658542518</v>
+        <v>1.034513140434187</v>
       </c>
       <c r="F42">
-        <v>0.4213967483712208</v>
+        <v>0.1317841499850665</v>
       </c>
       <c r="G42">
-        <v>31.31009612008843</v>
+        <v>9.791661703810099</v>
       </c>
       <c r="I42">
-        <v>43.55362669184287</v>
+        <v>13.62060266135506</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>9.558687157789656</v>
+        <v>2.98930513092804</v>
       </c>
       <c r="C43">
-        <v>0.01534256317698714</v>
+        <v>0.004798106902073851</v>
       </c>
       <c r="D43">
-        <v>2.977189792688268</v>
+        <v>0.9310618263907683</v>
       </c>
       <c r="E43">
-        <v>1.610993392343652</v>
+        <v>0.5038088112026501</v>
       </c>
       <c r="F43">
-        <v>0.515040470231492</v>
+        <v>0.1610695166484147</v>
       </c>
       <c r="G43">
-        <v>30.05769227528491</v>
+        <v>9.3999952356577</v>
       </c>
       <c r="I43">
-        <v>44.73494565151496</v>
+        <v>13.99003862772965</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>17.05569669331096</v>
+        <v>5.333858174793169</v>
       </c>
       <c r="C44">
-        <v>0.00986307632806316</v>
+        <v>0.003084497294190333</v>
       </c>
       <c r="D44">
-        <v>6.615977317085036</v>
+        <v>2.069026280868374</v>
       </c>
       <c r="E44">
-        <v>0.8054966961718261</v>
+        <v>0.251904405601325</v>
       </c>
       <c r="F44">
-        <v>1.053491870928052</v>
+        <v>0.3294603749626663</v>
       </c>
       <c r="G44">
-        <v>38.8245191889097</v>
+        <v>12.14166051272453</v>
       </c>
       <c r="I44">
-        <v>64.36504484273362</v>
+        <v>20.12899424624425</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>41.04612720697911</v>
+        <v>12.83642791516158</v>
       </c>
       <c r="C45">
-        <v>0.007671281588493568</v>
+        <v>0.002399053451036926</v>
       </c>
       <c r="D45">
-        <v>14.22435123173283</v>
+        <v>4.448406503867004</v>
       </c>
       <c r="E45">
-        <v>7.249470265546433</v>
+        <v>2.267139650411925</v>
       </c>
       <c r="F45">
-        <v>1.872874437205426</v>
+        <v>0.5857073332669623</v>
       </c>
       <c r="G45">
-        <v>56.35817301615919</v>
+        <v>17.62499106685818</v>
       </c>
       <c r="H45">
-        <v>0.237707706140246</v>
+        <v>0.07433875111678892</v>
       </c>
       <c r="I45">
-        <v>120.9963751453517</v>
+        <v>37.83941027413348</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>78.03137424888421</v>
+        <v>24.40288959822956</v>
       </c>
       <c r="C46">
-        <v>0.01095897369784796</v>
+        <v>0.003427219215767036</v>
       </c>
       <c r="D46">
-        <v>30.43349565859118</v>
+        <v>9.517520891994522</v>
       </c>
       <c r="E46">
-        <v>19.33192070812381</v>
+        <v>6.045705734431801</v>
       </c>
       <c r="F46">
-        <v>3.207297473714291</v>
+        <v>1.003023808219673</v>
       </c>
       <c r="G46">
-        <v>97.68749989467595</v>
+        <v>30.54998451588753</v>
       </c>
       <c r="H46">
-        <v>0.8715949225142358</v>
+        <v>0.2725754207615594</v>
       </c>
       <c r="I46">
-        <v>229.5741418802015</v>
+        <v>71.79512718874041</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>125.6373847994444</v>
+        <v>39.29080142677309</v>
       </c>
       <c r="C47">
-        <v>0.01205487106763275</v>
+        <v>0.00376994113734374</v>
       </c>
       <c r="D47">
-        <v>23.81751834150615</v>
+        <v>7.448494611126146</v>
       </c>
       <c r="E47">
-        <v>19.13054653408086</v>
+        <v>5.98272963303147</v>
       </c>
       <c r="F47">
-        <v>3.745748874410851</v>
+        <v>1.171414666533925</v>
       </c>
       <c r="G47">
-        <v>123.9879806355502</v>
+        <v>38.77498034708803</v>
       </c>
       <c r="H47">
-        <v>0.7923590204674864</v>
+        <v>0.2477958370559631</v>
       </c>
       <c r="I47">
-        <v>297.1235930765276</v>
+        <v>92.91998646274595</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>154.188496113888</v>
+        <v>48.21964093549281</v>
       </c>
       <c r="C48">
-        <v>0.0241097421352655</v>
+        <v>0.00753988227468748</v>
       </c>
       <c r="D48">
-        <v>34.73388091469645</v>
+        <v>10.86238797455897</v>
       </c>
       <c r="E48">
-        <v>11.67970209449147</v>
+        <v>3.652613881219215</v>
       </c>
       <c r="F48">
-        <v>4.588542371153291</v>
+        <v>1.434982966504058</v>
       </c>
       <c r="G48">
-        <v>151.540865221228</v>
+        <v>47.39164264644089</v>
       </c>
       <c r="H48">
-        <v>1.743189845028472</v>
+        <v>0.5451508415231188</v>
       </c>
       <c r="I48">
-        <v>358.4987863026209</v>
+        <v>112.1139591280137</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>112.1427676355061</v>
+        <v>35.07060594781587</v>
       </c>
       <c r="C49">
-        <v>0.04273999742160702</v>
+        <v>0.01336615494149144</v>
       </c>
       <c r="D49">
-        <v>48.62743328057502</v>
+        <v>15.20734316438255</v>
       </c>
       <c r="E49">
-        <v>11.67970209449147</v>
+        <v>3.652613881219215</v>
       </c>
       <c r="F49">
-        <v>5.150404702314921</v>
+        <v>1.610695166484147</v>
       </c>
       <c r="G49">
-        <v>201.6370190133696</v>
+        <v>63.05830137253707</v>
       </c>
       <c r="H49">
-        <v>2.456312963449209</v>
+        <v>0.7681670948734854</v>
       </c>
       <c r="I49">
-        <v>381.7363796871279</v>
+        <v>119.3810927822538</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_VOC.xlsx
+++ b/output/경기동로_N_겨울_배출량/경기동로_N_겨울_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>30.90902429495529</v>
+        <v>98.83557570995583</v>
       </c>
       <c r="C2">
-        <v>0.01507976454937496</v>
+        <v>0.04821948427053101</v>
       </c>
       <c r="D2">
-        <v>7.862299867299825</v>
+        <v>25.14071380492315</v>
       </c>
       <c r="E2">
-        <v>2.078211346210931</v>
+        <v>6.645347743417568</v>
       </c>
       <c r="F2">
-        <v>1.82301407479342</v>
+        <v>5.829321685801886</v>
       </c>
       <c r="G2">
-        <v>62.27496843623229</v>
+        <v>199.1322113237625</v>
       </c>
       <c r="H2">
-        <v>0.3221345881727521</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I2">
-        <v>105.2847323722139</v>
+        <v>336.6614564787392</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>32.19852846908109</v>
+        <v>102.9589309544926</v>
       </c>
       <c r="C3">
-        <v>0.018506983765142</v>
+        <v>0.05917845796837898</v>
       </c>
       <c r="D3">
-        <v>7.551945925169564</v>
+        <v>24.1483172073604</v>
       </c>
       <c r="E3">
-        <v>2.330115751812257</v>
+        <v>7.450844439589391</v>
       </c>
       <c r="F3">
-        <v>1.698551266474191</v>
+        <v>5.431335867895734</v>
       </c>
       <c r="G3">
-        <v>55.22497200948902</v>
+        <v>176.5889421172988</v>
       </c>
       <c r="H3">
-        <v>0.2477958370559631</v>
+        <v>0.7923590204674864</v>
       </c>
       <c r="I3">
-        <v>99.27041624284722</v>
+        <v>317.4299080650727</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>34.09370884620541</v>
+        <v>109.0190136623723</v>
       </c>
       <c r="C4">
-        <v>0.01782153992198859</v>
+        <v>0.05698666322880936</v>
       </c>
       <c r="D4">
-        <v>7.655397239212983</v>
+        <v>24.47911607321463</v>
       </c>
       <c r="E4">
-        <v>2.141187447611264</v>
+        <v>6.84672191746052</v>
       </c>
       <c r="F4">
-        <v>1.669265899810843</v>
+        <v>5.337692146035462</v>
       </c>
       <c r="G4">
-        <v>52.48330673242215</v>
+        <v>167.8221152036739</v>
       </c>
       <c r="H4">
-        <v>0.4212529229951372</v>
+        <v>1.347010334794728</v>
       </c>
       <c r="I4">
-        <v>98.48194062817979</v>
+        <v>314.9086560007804</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>33.76156383165785</v>
+        <v>107.9569373115067</v>
       </c>
       <c r="C5">
-        <v>0.01610793031410507</v>
+        <v>0.0515071763798854</v>
       </c>
       <c r="D5">
-        <v>6.413981470691961</v>
+        <v>20.50952968296362</v>
       </c>
       <c r="E5">
-        <v>2.330115751812257</v>
+        <v>7.450844439589391</v>
       </c>
       <c r="F5">
-        <v>1.903548833117628</v>
+        <v>6.086841920917633</v>
       </c>
       <c r="G5">
-        <v>36.03331507002117</v>
+        <v>115.2211537219255</v>
       </c>
       <c r="H5">
-        <v>0.3221345881727521</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I5">
-        <v>80.78076747578773</v>
+        <v>258.3068809798905</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>36.16473070161961</v>
+        <v>115.6413720854161</v>
       </c>
       <c r="C6">
-        <v>0.01576520839252836</v>
+        <v>0.05041127901010059</v>
       </c>
       <c r="D6">
-        <v>8.896813007734007</v>
+        <v>28.44870246346566</v>
       </c>
       <c r="E6">
-        <v>2.393091853212587</v>
+        <v>7.652218613632345</v>
       </c>
       <c r="F6">
-        <v>1.757121999800887</v>
+        <v>5.618623311616276</v>
       </c>
       <c r="G6">
-        <v>43.47497796491688</v>
+        <v>139.0168267731926</v>
       </c>
       <c r="H6">
-        <v>0.3221345881727521</v>
+        <v>1.030066726607733</v>
       </c>
       <c r="I6">
-        <v>93.02463532384927</v>
+        <v>297.4582212529409</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>37.88406960045402</v>
+        <v>121.1391790781318</v>
       </c>
       <c r="C7">
-        <v>0.01645065223568178</v>
+        <v>0.05260307374967019</v>
       </c>
       <c r="D7">
-        <v>8.483007751560331</v>
+        <v>27.12550700004865</v>
       </c>
       <c r="E7">
-        <v>2.267139650411925</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F7">
-        <v>1.705872608140027</v>
+        <v>5.454746798360802</v>
       </c>
       <c r="G7">
-        <v>37.20831447447841</v>
+        <v>118.978365256336</v>
       </c>
       <c r="H7">
-        <v>0.3716937555839445</v>
+        <v>1.18853853070123</v>
       </c>
       <c r="I7">
-        <v>87.93654849286435</v>
+        <v>281.1884100028745</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>43.06162423898953</v>
+        <v>137.6950751357411</v>
       </c>
       <c r="C8">
-        <v>0.01233798917676133</v>
+        <v>0.03945230531225264</v>
       </c>
       <c r="D8">
-        <v>9.103715635820844</v>
+        <v>29.11030019517416</v>
       </c>
       <c r="E8">
-        <v>3.337733374217557</v>
+        <v>10.67283122427669</v>
       </c>
       <c r="F8">
-        <v>1.632659191481658</v>
+        <v>5.220637493710123</v>
       </c>
       <c r="G8">
-        <v>21.93332221653462</v>
+        <v>70.13461530899808</v>
       </c>
       <c r="H8">
-        <v>0.4708120904063298</v>
+        <v>1.505482138888225</v>
       </c>
       <c r="I8">
-        <v>79.5522047366273</v>
+        <v>254.3783938021007</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>47.06690235559245</v>
+        <v>150.5024664255902</v>
       </c>
       <c r="C9">
-        <v>0.009938935725724405</v>
+        <v>0.03178102372375907</v>
       </c>
       <c r="D9">
-        <v>7.862299867299825</v>
+        <v>25.14071380492315</v>
       </c>
       <c r="E9">
-        <v>4.723207605024844</v>
+        <v>15.10306305322174</v>
       </c>
       <c r="F9">
-        <v>1.186057349865598</v>
+        <v>3.792570735340986</v>
       </c>
       <c r="G9">
-        <v>16.84165813055338</v>
+        <v>53.85336532655212</v>
       </c>
       <c r="H9">
-        <v>0.1486775022335778</v>
+        <v>0.4754154122804919</v>
       </c>
       <c r="I9">
-        <v>77.83874174629541</v>
+        <v>248.8993757816324</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>47.80934415281643</v>
+        <v>152.8765194451719</v>
       </c>
       <c r="C10">
-        <v>0.01165254533360792</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D10">
-        <v>6.207078842605123</v>
+        <v>19.84793195125512</v>
       </c>
       <c r="E10">
-        <v>5.038088112026502</v>
+        <v>16.10993392343652</v>
       </c>
       <c r="F10">
-        <v>0.6369567249278213</v>
+        <v>2.036750950460901</v>
       </c>
       <c r="G10">
-        <v>9.008328767505294</v>
+        <v>28.80528843048137</v>
       </c>
       <c r="H10">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I10">
-        <v>68.78578789633156</v>
+        <v>219.9513929175188</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>30.86994841089086</v>
+        <v>98.7106255510305</v>
       </c>
       <c r="C11">
-        <v>0.01816426184356529</v>
+        <v>0.05808256059859417</v>
       </c>
       <c r="D11">
-        <v>3.724247305563073</v>
+        <v>11.90875917075307</v>
       </c>
       <c r="E11">
-        <v>4.156422692421861</v>
+        <v>13.29069548683514</v>
       </c>
       <c r="F11">
-        <v>0.2928536666334812</v>
+        <v>0.9364372186027128</v>
       </c>
       <c r="G11">
-        <v>6.658329958590872</v>
+        <v>21.29086536166013</v>
       </c>
       <c r="H11">
-        <v>0.09911833482238522</v>
+        <v>0.3169436081869947</v>
       </c>
       <c r="I11">
-        <v>45.8190846307661</v>
+        <v>146.5124089576671</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>26.59113910583701</v>
+        <v>85.02858314870407</v>
       </c>
       <c r="C12">
-        <v>0.02022059337302552</v>
+        <v>0.06465794481730294</v>
       </c>
       <c r="D12">
-        <v>3.103539421302561</v>
+        <v>9.923965975627558</v>
       </c>
       <c r="E12">
-        <v>3.58963777981888</v>
+        <v>11.47832792044852</v>
       </c>
       <c r="F12">
-        <v>0.3514243999601775</v>
+        <v>1.123724662323255</v>
       </c>
       <c r="G12">
-        <v>5.874997022286063</v>
+        <v>18.78605767205307</v>
       </c>
       <c r="H12">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I12">
-        <v>39.60529707369451</v>
+        <v>126.643025030114</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>20.24130794536895</v>
+        <v>64.72418232333396</v>
       </c>
       <c r="C13">
-        <v>0.01130982341203122</v>
+        <v>0.03616461320289825</v>
       </c>
       <c r="D13">
-        <v>2.689734165128886</v>
+        <v>8.600770512210548</v>
       </c>
       <c r="E13">
-        <v>2.896900664415238</v>
+        <v>9.263212005976001</v>
       </c>
       <c r="F13">
-        <v>0.241604274972622</v>
+        <v>0.772560705347238</v>
       </c>
       <c r="G13">
-        <v>4.308331149676444</v>
+        <v>13.77644229283892</v>
       </c>
       <c r="I13">
-        <v>30.38918802297417</v>
+        <v>97.17333245290956</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>14.79022211838252</v>
+        <v>47.29363515324688</v>
       </c>
       <c r="C14">
-        <v>0.01199526725518463</v>
+        <v>0.03835640794246784</v>
       </c>
       <c r="D14">
-        <v>2.172477594911793</v>
+        <v>6.946776182939291</v>
       </c>
       <c r="E14">
-        <v>1.448450332207619</v>
+        <v>4.631606002988001</v>
       </c>
       <c r="F14">
-        <v>0.241604274972622</v>
+        <v>0.772560705347238</v>
       </c>
       <c r="G14">
-        <v>4.69999761782885</v>
+        <v>15.02884613764245</v>
       </c>
       <c r="H14">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I14">
-        <v>23.38952678926418</v>
+        <v>74.79101649215308</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,28 +812,28 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>9.260984523267258</v>
+        <v>29.61318766530917</v>
       </c>
       <c r="C15">
-        <v>0.003084497294190333</v>
+        <v>0.00986307632806316</v>
       </c>
       <c r="D15">
-        <v>0.9310618263907683</v>
+        <v>2.977189792688268</v>
       </c>
       <c r="E15">
-        <v>1.322498129406956</v>
+        <v>4.228857654902087</v>
       </c>
       <c r="F15">
-        <v>0.1317841499850665</v>
+        <v>0.4213967483712208</v>
       </c>
       <c r="G15">
-        <v>6.658329958590872</v>
+        <v>21.29086536166013</v>
       </c>
       <c r="H15">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I15">
-        <v>18.33252266864071</v>
+        <v>58.62059620130569</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,28 +841,28 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>6.506134696725733</v>
+        <v>20.80420146107161</v>
       </c>
       <c r="C16">
-        <v>0.007197160353110777</v>
+        <v>0.02301384476548071</v>
       </c>
       <c r="D16">
-        <v>0.6207078842605122</v>
+        <v>1.984793195125512</v>
       </c>
       <c r="E16">
-        <v>0.6297610140033127</v>
+        <v>2.013741740429565</v>
       </c>
       <c r="F16">
-        <v>0.2708896416359702</v>
+        <v>0.8662044272075092</v>
       </c>
       <c r="G16">
-        <v>4.308331149676444</v>
+        <v>13.77644229283892</v>
       </c>
       <c r="H16">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I16">
-        <v>12.39258071406628</v>
+        <v>39.62686876553209</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,22 +870,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>4.200657536925021</v>
+        <v>13.43214208447566</v>
       </c>
       <c r="C17">
-        <v>0.01062437956887781</v>
+        <v>0.03397281846332866</v>
       </c>
       <c r="D17">
-        <v>0.2069026280868374</v>
+        <v>0.6615977317085036</v>
       </c>
       <c r="F17">
-        <v>0.1976762249775998</v>
+        <v>0.6320951225568313</v>
       </c>
       <c r="G17">
-        <v>7.049996426743275</v>
+        <v>22.54326920646368</v>
       </c>
       <c r="I17">
-        <v>11.66585719630161</v>
+        <v>37.303076963668</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -893,22 +893,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.715773942477106</v>
+        <v>8.684036045312174</v>
       </c>
       <c r="C18">
-        <v>0.007197160353110777</v>
+        <v>0.02301384476548071</v>
       </c>
       <c r="D18">
-        <v>0.7241591983039314</v>
+        <v>2.315592060979764</v>
       </c>
       <c r="F18">
-        <v>0.1317841499850665</v>
+        <v>0.4213967483712208</v>
       </c>
       <c r="G18">
-        <v>9.008328767505294</v>
+        <v>28.80528843048137</v>
       </c>
       <c r="I18">
-        <v>12.58724321862451</v>
+        <v>40.24932712991001</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,25 +916,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>3.047918957024669</v>
+        <v>9.746112396177693</v>
       </c>
       <c r="C19">
-        <v>0.006168994588380665</v>
+        <v>0.01972615265612632</v>
       </c>
       <c r="D19">
-        <v>0.6207078842605122</v>
+        <v>1.984793195125512</v>
       </c>
       <c r="E19">
-        <v>0.5038088112026501</v>
+        <v>1.610993392343652</v>
       </c>
       <c r="F19">
-        <v>0.1683908583142517</v>
+        <v>0.5384514006965598</v>
       </c>
       <c r="G19">
-        <v>8.616662299352887</v>
+        <v>27.55288458567784</v>
       </c>
       <c r="I19">
-        <v>12.96365780474335</v>
+        <v>41.45296112267738</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>5.451085826986427</v>
+        <v>17.43054717008702</v>
       </c>
       <c r="C20">
-        <v>0.004112663058920445</v>
+        <v>0.01315076843741755</v>
       </c>
       <c r="D20">
-        <v>1.448318396607863</v>
+        <v>4.631184121959529</v>
       </c>
       <c r="E20">
-        <v>0.251904405601325</v>
+        <v>0.8054966961718261</v>
       </c>
       <c r="F20">
-        <v>0.3367817166285034</v>
+        <v>1.07690280139312</v>
       </c>
       <c r="G20">
-        <v>10.96666110826731</v>
+        <v>35.06730765449904</v>
       </c>
       <c r="I20">
-        <v>18.45886411715035</v>
+        <v>59.02458921254795</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>13.10995910361251</v>
+        <v>41.92077831945662</v>
       </c>
       <c r="C21">
-        <v>0.003084497294190333</v>
+        <v>0.00986307632806316</v>
       </c>
       <c r="D21">
-        <v>3.103539421302561</v>
+        <v>9.923965975627558</v>
       </c>
       <c r="E21">
-        <v>2.330115751812257</v>
+        <v>7.450844439589391</v>
       </c>
       <c r="F21">
-        <v>0.6003500165986364</v>
+        <v>1.919696298135561</v>
       </c>
       <c r="G21">
-        <v>16.05832519424857</v>
+        <v>51.34855763694505</v>
       </c>
       <c r="H21">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I21">
-        <v>35.27971273598552</v>
+        <v>112.8114134522225</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>24.91087609106699</v>
+        <v>79.65572631491384</v>
       </c>
       <c r="C22">
-        <v>0.004455384980497147</v>
+        <v>0.01424666580720234</v>
       </c>
       <c r="D22">
-        <v>6.620884098778796</v>
+        <v>21.17112741467211</v>
       </c>
       <c r="E22">
-        <v>6.234634038632795</v>
+        <v>19.93604323025268</v>
       </c>
       <c r="F22">
-        <v>1.032309174883021</v>
+        <v>3.300941195574563</v>
       </c>
       <c r="G22">
-        <v>28.1999857069731</v>
+        <v>90.17307682585471</v>
       </c>
       <c r="H22">
-        <v>0.2477958370559631</v>
+        <v>0.7923590204674864</v>
       </c>
       <c r="I22">
-        <v>67.25094033237116</v>
+        <v>215.0435206675426</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>40.09185705009369</v>
+        <v>128.1988630574143</v>
       </c>
       <c r="C23">
-        <v>0.004798106902073851</v>
+        <v>0.01534256317698714</v>
       </c>
       <c r="D23">
-        <v>5.172565702170933</v>
+        <v>16.53994329271261</v>
       </c>
       <c r="E23">
-        <v>6.171657937232462</v>
+        <v>19.73466905620973</v>
       </c>
       <c r="F23">
-        <v>1.200700033197273</v>
+        <v>3.839392596271122</v>
       </c>
       <c r="G23">
-        <v>35.64164860186879</v>
+        <v>113.9687498771219</v>
       </c>
       <c r="H23">
-        <v>0.2230162533503667</v>
+        <v>0.7131231184207378</v>
       </c>
       <c r="I23">
-        <v>88.50624368481557</v>
+        <v>283.0100835613274</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>49.21607597913553</v>
+        <v>157.3747251664847</v>
       </c>
       <c r="C24">
-        <v>0.009938935725724405</v>
+        <v>0.03178102372375907</v>
       </c>
       <c r="D24">
-        <v>7.551945925169564</v>
+        <v>24.1483172073604</v>
       </c>
       <c r="E24">
-        <v>3.778566084019873</v>
+        <v>12.08245044257739</v>
       </c>
       <c r="F24">
-        <v>1.471589674833243</v>
+        <v>4.705597023478632</v>
       </c>
       <c r="G24">
-        <v>43.47497796491688</v>
+        <v>139.0168267731926</v>
       </c>
       <c r="H24">
-        <v>0.4955916741119261</v>
+        <v>1.584718040934973</v>
       </c>
       <c r="I24">
-        <v>105.9986862379127</v>
+        <v>338.9444156777525</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>35.79350980300764</v>
+        <v>114.4543455756252</v>
       </c>
       <c r="C25">
-        <v>0.01747881800041188</v>
+        <v>0.05589076585902457</v>
       </c>
       <c r="D25">
-        <v>10.55203403242871</v>
+        <v>33.74148431713368</v>
       </c>
       <c r="E25">
-        <v>3.778566084019873</v>
+        <v>12.08245044257739</v>
       </c>
       <c r="F25">
-        <v>1.654623216479168</v>
+        <v>5.290870285105327</v>
       </c>
       <c r="G25">
-        <v>57.96663728655582</v>
+        <v>185.3557690309236</v>
       </c>
       <c r="H25">
-        <v>0.6938283437566967</v>
+        <v>2.218605257308963</v>
       </c>
       <c r="I25">
-        <v>110.4566775842483</v>
+        <v>353.1994156745332</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>30.28381014992458</v>
+        <v>96.83637316715014</v>
       </c>
       <c r="C26">
-        <v>0.01165254533360792</v>
+        <v>0.03726051057268304</v>
       </c>
       <c r="D26">
-        <v>11.27619323073264</v>
+        <v>36.05707637811346</v>
       </c>
       <c r="E26">
-        <v>2.0152352448106</v>
+        <v>6.443973569374609</v>
       </c>
       <c r="F26">
-        <v>1.779086024798398</v>
+        <v>5.688856103011479</v>
       </c>
       <c r="G26">
-        <v>67.75829899036589</v>
+        <v>216.665865151012</v>
       </c>
       <c r="H26">
-        <v>0.3469141718783483</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I26">
-        <v>113.4711903578441</v>
+        <v>362.8387075078888</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>31.5537763820182</v>
+        <v>100.8972533322242</v>
       </c>
       <c r="C27">
-        <v>0.01439432070622155</v>
+        <v>0.04602768953096142</v>
       </c>
       <c r="D27">
-        <v>10.86238797455897</v>
+        <v>34.73388091469645</v>
       </c>
       <c r="E27">
-        <v>2.267139650411925</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F27">
-        <v>1.654623216479168</v>
+        <v>5.290870285105327</v>
       </c>
       <c r="G27">
-        <v>60.31663609547024</v>
+        <v>192.8701920997449</v>
       </c>
       <c r="H27">
-        <v>0.2725754207615594</v>
+        <v>0.8715949225142358</v>
       </c>
       <c r="I27">
-        <v>106.9415330604063</v>
+        <v>341.9592895093625</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>33.40988087507809</v>
+        <v>106.8323858811786</v>
       </c>
       <c r="C28">
-        <v>0.01370887686306814</v>
+        <v>0.04383589479139183</v>
       </c>
       <c r="D28">
-        <v>11.06929060264581</v>
+        <v>35.39547864640495</v>
       </c>
       <c r="E28">
-        <v>2.078211346210931</v>
+        <v>6.645347743417568</v>
       </c>
       <c r="F28">
-        <v>1.62533784981582</v>
+        <v>5.197226563245055</v>
       </c>
       <c r="G28">
-        <v>57.18330435025097</v>
+        <v>182.8509613413164</v>
       </c>
       <c r="H28">
-        <v>0.4708120904063298</v>
+        <v>1.505482138888225</v>
       </c>
       <c r="I28">
-        <v>105.850545991271</v>
+        <v>338.4707182092421</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>33.07773586053052</v>
+        <v>105.770309530313</v>
       </c>
       <c r="C29">
-        <v>0.01233798917676133</v>
+        <v>0.03945230531225264</v>
       </c>
       <c r="D29">
-        <v>9.207166949864266</v>
+        <v>29.44109906102842</v>
       </c>
       <c r="E29">
-        <v>2.267139650411925</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F29">
-        <v>1.852299441456769</v>
+        <v>5.922965407662158</v>
       </c>
       <c r="G29">
-        <v>39.1666468152404</v>
+        <v>125.2403844803537</v>
       </c>
       <c r="H29">
-        <v>0.3469141718783483</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I29">
-        <v>85.930240878559</v>
+        <v>274.7729836788705</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>35.44182684642787</v>
+        <v>113.329794145297</v>
       </c>
       <c r="C30">
-        <v>0.01199526725518463</v>
+        <v>0.03835640794246784</v>
       </c>
       <c r="D30">
-        <v>12.82796294138392</v>
+        <v>41.01905936592724</v>
       </c>
       <c r="E30">
-        <v>2.330115751812257</v>
+        <v>7.450844439589391</v>
       </c>
       <c r="F30">
-        <v>1.713193949805865</v>
+        <v>5.478157728825869</v>
       </c>
       <c r="G30">
-        <v>47.39164264644089</v>
+        <v>151.540865221228</v>
       </c>
       <c r="H30">
-        <v>0.3469141718783483</v>
+        <v>1.109302628654481</v>
       </c>
       <c r="I30">
-        <v>100.0636515750043</v>
+        <v>319.9663799374644</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,28 +1258,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>37.12208986119787</v>
+        <v>118.7026509790873</v>
       </c>
       <c r="C31">
-        <v>0.01268071109833803</v>
+        <v>0.04054820268203744</v>
       </c>
       <c r="D31">
-        <v>12.2072550571234</v>
+        <v>39.03426617080174</v>
       </c>
       <c r="E31">
-        <v>2.204163549011595</v>
+        <v>7.048096091503476</v>
       </c>
       <c r="F31">
-        <v>1.661944558145006</v>
+        <v>5.314281215570396</v>
       </c>
       <c r="G31">
-        <v>40.73331268785005</v>
+        <v>130.2499998595679</v>
       </c>
       <c r="H31">
-        <v>0.3964733392895409</v>
+        <v>1.267774432747979</v>
       </c>
       <c r="I31">
-        <v>94.3379197637158</v>
+        <v>301.6576169519608</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1287,28 +1287,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>42.20195478957231</v>
+        <v>134.9461716393834</v>
       </c>
       <c r="C32">
-        <v>0.009596213804147703</v>
+        <v>0.03068512635397427</v>
       </c>
       <c r="D32">
-        <v>13.13831688351418</v>
+        <v>42.01145596349001</v>
       </c>
       <c r="E32">
-        <v>3.211781171416893</v>
+        <v>10.27008287619079</v>
       </c>
       <c r="F32">
-        <v>1.588731141486636</v>
+        <v>5.080171910919716</v>
       </c>
       <c r="G32">
-        <v>23.89165455729665</v>
+        <v>76.39663453301587</v>
       </c>
       <c r="H32">
-        <v>0.5203712578175226</v>
+        <v>1.663953942981722</v>
       </c>
       <c r="I32">
-        <v>84.56240601490833</v>
+        <v>270.3991559923355</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1316,28 +1316,28 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>46.1290811380464</v>
+        <v>147.5036626113816</v>
       </c>
       <c r="C33">
-        <v>0.00753988227468748</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D33">
-        <v>11.27619323073264</v>
+        <v>36.05707637811346</v>
       </c>
       <c r="E33">
-        <v>4.597255402224185</v>
+        <v>14.70031470513583</v>
       </c>
       <c r="F33">
-        <v>1.15677198320225</v>
+        <v>3.698927013480716</v>
       </c>
       <c r="G33">
-        <v>18.40832400316298</v>
+        <v>58.86298070576625</v>
       </c>
       <c r="H33">
-        <v>0.1734570859391742</v>
+        <v>0.5546513143272407</v>
       </c>
       <c r="I33">
-        <v>81.74862272558232</v>
+        <v>261.4017224703404</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1345,28 +1345,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>46.85198499323813</v>
+        <v>149.8152405515007</v>
       </c>
       <c r="C34">
-        <v>0.008910769960994293</v>
+        <v>0.02849333161440468</v>
       </c>
       <c r="D34">
-        <v>8.896813007734007</v>
+        <v>28.44870246346566</v>
       </c>
       <c r="E34">
-        <v>4.912135909225837</v>
+        <v>15.70718557535061</v>
       </c>
       <c r="F34">
-        <v>0.6223140415961472</v>
+        <v>1.989929089530764</v>
       </c>
       <c r="G34">
-        <v>9.791661703810099</v>
+        <v>31.31009612008843</v>
       </c>
       <c r="H34">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I34">
-        <v>71.15815917668199</v>
+        <v>227.5373548376908</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1374,28 +1374,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>30.24473426586016</v>
+        <v>96.71142300822478</v>
       </c>
       <c r="C35">
-        <v>0.01405159878464485</v>
+        <v>0.04493179216117662</v>
       </c>
       <c r="D35">
-        <v>5.379468330257771</v>
+        <v>17.2015410244211</v>
       </c>
       <c r="E35">
-        <v>4.030470489621201</v>
+        <v>12.88794713874922</v>
       </c>
       <c r="F35">
-        <v>0.2855323249676441</v>
+        <v>0.9130262881376451</v>
       </c>
       <c r="G35">
-        <v>7.441662894895678</v>
+        <v>23.79567305126721</v>
       </c>
       <c r="H35">
-        <v>0.09911833482238522</v>
+        <v>0.3169436081869947</v>
       </c>
       <c r="I35">
-        <v>47.49503823920949</v>
+        <v>151.8714859111481</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1403,28 +1403,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>26.06361467096736</v>
+        <v>83.34175600321181</v>
       </c>
       <c r="C36">
-        <v>0.01542248647095167</v>
+        <v>0.04931538164031581</v>
       </c>
       <c r="D36">
-        <v>4.448406503867004</v>
+        <v>14.22435123173283</v>
       </c>
       <c r="E36">
-        <v>3.46368557701822</v>
+        <v>11.07557957236261</v>
       </c>
       <c r="F36">
-        <v>0.3441030582943404</v>
+        <v>1.100313731858187</v>
       </c>
       <c r="G36">
-        <v>6.266663490438465</v>
+        <v>20.0384615168566</v>
       </c>
       <c r="H36">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I36">
-        <v>40.67623453817313</v>
+        <v>130.0674851438026</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1432,25 +1432,25 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>19.83101116269255</v>
+        <v>63.41220565461769</v>
       </c>
       <c r="C37">
-        <v>0.008568048039417591</v>
+        <v>0.02739743424461989</v>
       </c>
       <c r="D37">
-        <v>3.827698619606492</v>
+        <v>12.23955803660732</v>
       </c>
       <c r="E37">
-        <v>2.833924563014907</v>
+        <v>9.061837831933047</v>
       </c>
       <c r="F37">
-        <v>0.234282933306785</v>
+        <v>0.7491497748821703</v>
       </c>
       <c r="G37">
-        <v>4.69999761782885</v>
+        <v>15.02884613764245</v>
       </c>
       <c r="I37">
-        <v>31.435482944489</v>
+        <v>100.5189948699273</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1458,28 +1458,28 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>14.49715298789939</v>
+        <v>46.35650896130672</v>
       </c>
       <c r="C38">
-        <v>0.009253491882571</v>
+        <v>0.02958922898418949</v>
       </c>
       <c r="D38">
-        <v>3.103539421302561</v>
+        <v>9.923965975627558</v>
       </c>
       <c r="E38">
-        <v>1.385474230807288</v>
+        <v>4.430231828945042</v>
       </c>
       <c r="F38">
-        <v>0.234282933306785</v>
+        <v>0.7491497748821703</v>
       </c>
       <c r="G38">
-        <v>5.091664085981256</v>
+        <v>16.28124998244599</v>
       </c>
       <c r="H38">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I38">
-        <v>24.34614673488544</v>
+        <v>77.84993165423842</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1487,28 +1487,28 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>9.065605102945165</v>
+        <v>28.98843687068238</v>
       </c>
       <c r="C39">
-        <v>0.002399053451036926</v>
+        <v>0.007671281588493568</v>
       </c>
       <c r="D39">
-        <v>1.344867082564443</v>
+        <v>4.300385256105274</v>
       </c>
       <c r="E39">
-        <v>1.259522028006625</v>
+        <v>4.02748348085913</v>
       </c>
       <c r="F39">
-        <v>0.1317841499850665</v>
+        <v>0.4213967483712208</v>
       </c>
       <c r="G39">
-        <v>7.441662894895678</v>
+        <v>23.79567305126721</v>
       </c>
       <c r="H39">
-        <v>0.0247795837055963</v>
+        <v>0.07923590204674867</v>
       </c>
       <c r="I39">
-        <v>19.27061989555361</v>
+        <v>61.62028259092045</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1516,28 +1516,28 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>6.369369102500267</v>
+        <v>20.36687590483287</v>
       </c>
       <c r="C40">
-        <v>0.005483550745227258</v>
+        <v>0.01753435791655673</v>
       </c>
       <c r="D40">
-        <v>0.9310618263907683</v>
+        <v>2.977189792688268</v>
       </c>
       <c r="E40">
-        <v>0.6297610140033127</v>
+        <v>2.013741740429565</v>
       </c>
       <c r="F40">
-        <v>0.263568299970133</v>
+        <v>0.8427934967424416</v>
       </c>
       <c r="G40">
-        <v>4.69999761782885</v>
+        <v>15.02884613764245</v>
       </c>
       <c r="H40">
-        <v>0.04955916741119261</v>
+        <v>0.1584718040934973</v>
       </c>
       <c r="I40">
-        <v>12.94880057884975</v>
+        <v>41.40545323434566</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1545,22 +1545,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>4.122505768796183</v>
+        <v>13.18224176662495</v>
       </c>
       <c r="C41">
-        <v>0.00822532611784089</v>
+        <v>0.02630153687483509</v>
       </c>
       <c r="D41">
-        <v>0.3103539421302561</v>
+        <v>0.9923965975627558</v>
       </c>
       <c r="F41">
-        <v>0.1903548833117628</v>
+        <v>0.6086841920917633</v>
       </c>
       <c r="G41">
-        <v>7.833329363048088</v>
+        <v>25.04807689607076</v>
       </c>
       <c r="I41">
-        <v>12.46476928340413</v>
+        <v>39.85770098922507</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1568,22 +1568,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>2.657160116380478</v>
+        <v>8.496610806924139</v>
       </c>
       <c r="C42">
-        <v>0.005483550745227258</v>
+        <v>0.01753435791655673</v>
       </c>
       <c r="D42">
-        <v>1.034513140434187</v>
+        <v>3.307988658542518</v>
       </c>
       <c r="F42">
-        <v>0.1317841499850665</v>
+        <v>0.4213967483712208</v>
       </c>
       <c r="G42">
-        <v>9.791661703810099</v>
+        <v>31.31009612008843</v>
       </c>
       <c r="I42">
-        <v>13.62060266135506</v>
+        <v>43.55362669184287</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,25 +1591,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>2.98930513092804</v>
+        <v>9.558687157789656</v>
       </c>
       <c r="C43">
-        <v>0.004798106902073851</v>
+        <v>0.01534256317698714</v>
       </c>
       <c r="D43">
-        <v>0.9310618263907683</v>
+        <v>2.977189792688268</v>
       </c>
       <c r="E43">
-        <v>0.5038088112026501</v>
+        <v>1.610993392343652</v>
       </c>
       <c r="F43">
-        <v>0.1610695166484147</v>
+        <v>0.515040470231492</v>
       </c>
       <c r="G43">
-        <v>9.3999952356577</v>
+        <v>30.05769227528491</v>
       </c>
       <c r="I43">
-        <v>13.99003862772965</v>
+        <v>44.73494565151496</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>5.333858174793169</v>
+        <v>17.05569669331096</v>
       </c>
       <c r="C44">
-        <v>0.003084497294190333</v>
+        <v>0.00986307632806316</v>
       </c>
       <c r="D44">
-        <v>2.069026280868374</v>
+        <v>6.615977317085036</v>
       </c>
       <c r="E44">
-        <v>0.251904405601325</v>
+        <v>0.8054966961718261</v>
       </c>
       <c r="F44">
-        <v>0.3294603749626663</v>
+        <v>1.053491870928052</v>
       </c>
       <c r="G44">
-        <v>12.14166051272453</v>
+        <v>38.8245191889097</v>
       </c>
       <c r="I44">
-        <v>20.12899424624425</v>
+        <v>64.36504484273362</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1643,28 +1643,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>12.83642791516158</v>
+        <v>41.04612720697911</v>
       </c>
       <c r="C45">
-        <v>0.002399053451036926</v>
+        <v>0.007671281588493568</v>
       </c>
       <c r="D45">
-        <v>4.448406503867004</v>
+        <v>14.22435123173283</v>
       </c>
       <c r="E45">
-        <v>2.267139650411925</v>
+        <v>7.249470265546433</v>
       </c>
       <c r="F45">
-        <v>0.5857073332669623</v>
+        <v>1.872874437205426</v>
       </c>
       <c r="G45">
-        <v>17.62499106685818</v>
+        <v>56.35817301615919</v>
       </c>
       <c r="H45">
-        <v>0.07433875111678892</v>
+        <v>0.237707706140246</v>
       </c>
       <c r="I45">
-        <v>37.83941027413348</v>
+        <v>120.9963751453517</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1672,28 +1672,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>24.40288959822956</v>
+        <v>78.03137424888421</v>
       </c>
       <c r="C46">
-        <v>0.003427219215767036</v>
+        <v>0.01095897369784796</v>
       </c>
       <c r="D46">
-        <v>9.517520891994522</v>
+        <v>30.43349565859118</v>
       </c>
       <c r="E46">
-        <v>6.045705734431801</v>
+        <v>19.33192070812381</v>
       </c>
       <c r="F46">
-        <v>1.003023808219673</v>
+        <v>3.207297473714291</v>
       </c>
       <c r="G46">
-        <v>30.54998451588753</v>
+        <v>97.68749989467595</v>
       </c>
       <c r="H46">
-        <v>0.2725754207615594</v>
+        <v>0.8715949225142358</v>
       </c>
       <c r="I46">
-        <v>71.79512718874041</v>
+        <v>229.5741418802015</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1701,28 +1701,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>39.29080142677309</v>
+        <v>125.6373847994444</v>
       </c>
       <c r="C47">
-        <v>0.00376994113734374</v>
+        <v>0.01205487106763275</v>
       </c>
       <c r="D47">
-        <v>7.448494611126146</v>
+        <v>23.81751834150615</v>
       </c>
       <c r="E47">
-        <v>5.98272963303147</v>
+        <v>19.13054653408086</v>
       </c>
       <c r="F47">
-        <v>1.171414666533925</v>
+        <v>3.745748874410851</v>
       </c>
       <c r="G47">
-        <v>38.77498034708803</v>
+        <v>123.9879806355502</v>
       </c>
       <c r="H47">
-        <v>0.2477958370559631</v>
+        <v>0.7923590204674864</v>
       </c>
       <c r="I47">
-        <v>92.91998646274595</v>
+        <v>297.1235930765276</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1730,28 +1730,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>48.21964093549281</v>
+        <v>154.188496113888</v>
       </c>
       <c r="C48">
-        <v>0.00753988227468748</v>
+        <v>0.0241097421352655</v>
       </c>
       <c r="D48">
-        <v>10.86238797455897</v>
+        <v>34.73388091469645</v>
       </c>
       <c r="E48">
-        <v>3.652613881219215</v>
+        <v>11.67970209449147</v>
       </c>
       <c r="F48">
-        <v>1.434982966504058</v>
+        <v>4.588542371153291</v>
       </c>
       <c r="G48">
-        <v>47.39164264644089</v>
+        <v>151.540865221228</v>
       </c>
       <c r="H48">
-        <v>0.5451508415231188</v>
+        <v>1.743189845028472</v>
       </c>
       <c r="I48">
-        <v>112.1139591280137</v>
+        <v>358.4987863026209</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1759,28 +1759,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>35.07060594781587</v>
+        <v>112.1427676355061</v>
       </c>
       <c r="C49">
-        <v>0.01336615494149144</v>
+        <v>0.04273999742160702</v>
       </c>
       <c r="D49">
-        <v>15.20734316438255</v>
+        <v>48.62743328057502</v>
       </c>
       <c r="E49">
-        <v>3.652613881219215</v>
+        <v>11.67970209449147</v>
       </c>
       <c r="F49">
-        <v>1.610695166484147</v>
+        <v>5.150404702314921</v>
       </c>
       <c r="G49">
-        <v>63.05830137253707</v>
+        <v>201.6370190133696</v>
       </c>
       <c r="H49">
-        <v>0.7681670948734854</v>
+        <v>2.456312963449209</v>
       </c>
       <c r="I49">
-        <v>119.3810927822538</v>
+        <v>381.7363796871279</v>
       </c>
     </row>
   </sheetData>
